--- a/data_analysis/sediment_load_analysis/transported_mass/total_mass_by_grain_size.xlsx
+++ b/data_analysis/sediment_load_analysis/transported_mass/total_mass_by_grain_size.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\OneDrive - University of Idaho\Documents\GitHub\sediment_trap_paper\data_analysis\sediment_load_analysis\transported_mass\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\sediment_trap_paper\data_analysis\sediment_load_analysis\transported_mass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456A0117-2467-440B-9F60-19963EFB2561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807D2D30-1142-42A3-BD0C-F6C11CB31CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C4D4A68A-128C-4ED8-927F-220094CAD87F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C4D4A68A-128C-4ED8-927F-220094CAD87F}"/>
   </bookViews>
   <sheets>
     <sheet name="SM23" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="36">
   <si>
     <t>Size</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>Trap Sum</t>
+  </si>
+  <si>
+    <t>In Suspension</t>
   </si>
 </sst>
 </file>
@@ -1325,7 +1328,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="347035039"/>
@@ -1387,7 +1390,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="347034559"/>
@@ -1435,7 +1438,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="505718671"/>
@@ -1492,7 +1495,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1529,7 +1532,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1541,6 +1544,1277 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>original</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'SM23'!$Y$52:$Y$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.78</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.46</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.27</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.33</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.65</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.05</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16.78</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23.37</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27.58</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32.549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38.409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45.32</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>53.48</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>63.11</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>74.48</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>87.89</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>103.72</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>122.39</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>144.43</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>170.44</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>201.13</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>237.35</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>280.08999999999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>330.52</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>390.04</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>460.27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'SM23'!$AA$52:$AA$95</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>121.65750555274199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.88132881832999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>139.96369329914501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>155.23070547879399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>173.60661472490401</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>196.722202609486</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>237.71157463356201</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>333.86380302206402</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>503.59374080472003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>646.72442391640595</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>785.41744446486996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>953.87745779617899</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1116.2948517203099</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1306.00374278711</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1537.51938798023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1841.9935668057999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2206.9467729379598</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2597.4789778229701</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2980.7580535214502</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3425.2176548105299</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3907.3076093792702</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4387.1923378880701</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5084.0108994927496</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5855.9329239180497</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6729.3925509948704</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7551.1914089311504</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8447.9647146164407</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9255.6222950766205</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10073.2921644336</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10813.9986110667</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11153.32864645</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11312.308963867201</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10659.1857315655</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9729.4529516752791</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8240.9416491218199</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6921.7972474706603</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5559.5678278471896</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4342.3819825568198</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3186.85359108996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2445.48230751956</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2011.4790371998299</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1736.9555325246999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1476.52847657858</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1380.2915810214399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6906-4B71-A4B8-56C3EE140ACB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>in suspension</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'SM23'!$Y$52:$Y$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.78</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.46</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.27</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.33</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.65</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.05</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16.78</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23.37</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27.58</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32.549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38.409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45.32</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>53.48</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>63.11</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>74.48</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>87.89</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>103.72</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>122.39</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>144.43</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>170.44</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>201.13</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>237.35</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>280.08999999999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>330.52</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>390.04</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>460.27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'SM23'!$AB$52:$AB$95</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>121.633010010013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.98334861110601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140.26905973822801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>155.86958589206</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>174.65833879102999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>198.21786131396399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>239.60206372725801</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>336.55964258452002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>508.07862446360298</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>652.965913689275</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>793.446213053306</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>963.97927235100497</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1128.2743118988301</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1319.5137642981001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1553.0988409178501</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1860.5253424360701</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2228.0832535323502</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2619.7208638728198</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3001.7037253107901</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3443.7330244719401</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3922.5219288557901</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4397.1735021970599</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5086.4438377869301</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5847.5240320642497</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6705.5061788860903</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7507.8114507325599</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8383.4098297478995</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9172.8590798405203</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9978.87603984419</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10712.125320867</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11051.812527840601</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11226.3041738146</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10598.546632346201</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9642.0723391194297</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7649.5509238986297</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5251.0575747032299</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2273.5544804247802</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>752.90329431254099</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>435.88657235092001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>299.27689881532399</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>222.33215254229</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40.677125700820099</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6906-4B71-A4B8-56C3EE140ACB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="347034559"/>
+        <c:axId val="347035039"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>trap</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'SM23'!$Y$52:$Y$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.78</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.46</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.27</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.33</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.65</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.05</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16.78</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23.37</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27.58</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32.549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38.409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45.32</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>53.48</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>63.11</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>74.48</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>87.89</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>103.72</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>122.39</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>144.43</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>170.44</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>201.13</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>237.35</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>280.08999999999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>330.52</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>390.04</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>460.27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'SM23'!$Z$52:$Z$95</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>0.28714825363308538</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30364493446306895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32836241878239664</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36357605364741713</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.40984846526662028</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47416511068235523</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58228567011946963</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80288260256510602</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1607428444836501</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4331133527665911</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6500217337252441</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8554166310865685</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0144191508344766</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1512944593904235</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.3258417250281807</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5695600463500732</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.8471990513510423</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1718142608937425</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.536550477393912</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.955720977427537</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.4511371473835455</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.027696816903461</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.8442845349817363</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.7672212721795022</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.7528020878134773</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.5889451003180159</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.3548209584717323</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.7705458259580471</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.8028577520804134</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.3906685792909581</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.372974204996261</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.1415286575936454</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.638989556805531</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.2943179749734988</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.1177283607522366</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.35764439470295</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.753728091983958</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.3312287152847653</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0103690574574107</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.86732363423001446</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.87170063728391312</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.88276559131629351</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.73995835092813511</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.53085447641955397</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6906-4B71-A4B8-56C3EE140ACB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="204839824"/>
+        <c:axId val="204846544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="347034559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="347035039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="347035039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="347034559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="204846544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="204839824"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="204839824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="204846544"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2278,7 +3552,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="667125023"/>
@@ -2340,7 +3614,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="667124543"/>
@@ -2388,7 +3662,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2069920991"/>
@@ -2445,7 +3719,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2482,7 +3756,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2493,7 +3767,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2533,7 +3807,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2621,7 +3895,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2981,7 +4255,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="627600767"/>
@@ -3043,7 +4317,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="627614207"/>
@@ -3089,7 +4363,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3126,7 +4400,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3137,7 +4411,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3235,7 +4509,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3409,7 +4683,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3637,7 +4911,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3811,7 +5085,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="627600767"/>
@@ -3873,7 +5147,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="627614207"/>
@@ -3927,7 +5201,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3964,7 +5238,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3975,7 +5249,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4707,7 +5981,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="667125023"/>
@@ -4769,7 +6043,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="667124543"/>
@@ -4817,7 +6091,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2069920991"/>
@@ -4874,7 +6148,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4911,7 +6185,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4922,7 +6196,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4987,7 +6261,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5072,7 +6346,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5432,7 +6706,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="627600767"/>
@@ -5494,7 +6768,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="627614207"/>
@@ -5540,7 +6814,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5577,7 +6851,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5588,7 +6862,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6320,7 +7594,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="667125023"/>
@@ -6382,7 +7656,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="667124543"/>
@@ -6430,7 +7704,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2069920991"/>
@@ -6487,7 +7761,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6524,7 +7798,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6535,7 +7809,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6600,7 +7874,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6685,7 +7959,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -7045,7 +8319,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="627600767"/>
@@ -7107,7 +8381,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="627614207"/>
@@ -7153,7 +8427,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7190,7 +8464,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7274,7 +8548,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7359,7 +8633,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -7650,6 +8924,323 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8537-420A-B82B-257EDA92FEBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>in suspension</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'SM23'!$AB$52:$AB$95</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>121.633010010013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.98334861110601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140.26905973822801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>155.86958589206</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>174.65833879102999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>198.21786131396399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>239.60206372725801</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>336.55964258452002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>508.07862446360298</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>652.965913689275</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>793.446213053306</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>963.97927235100497</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1128.2743118988301</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1319.5137642981001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1553.0988409178501</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1860.5253424360701</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2228.0832535323502</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2619.7208638728198</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3001.7037253107901</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3443.7330244719401</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3922.5219288557901</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4397.1735021970599</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5086.4438377869301</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5847.5240320642497</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6705.5061788860903</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7507.8114507325599</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8383.4098297478995</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9172.8590798405203</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9978.87603984419</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10712.125320867</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11051.812527840601</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11226.3041738146</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10598.546632346201</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9642.0723391194297</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7649.5509238986297</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5251.0575747032299</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2273.5544804247802</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>752.90329431254099</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>435.88657235092001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>299.27689881532399</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>222.33215254229</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40.677125700820099</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'SM23'!$Z$52:$Z$95</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>0.28714825363308538</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30364493446306895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32836241878239664</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36357605364741713</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.40984846526662028</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47416511068235523</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58228567011946963</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80288260256510602</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1607428444836501</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4331133527665911</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6500217337252441</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8554166310865685</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0144191508344766</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1512944593904235</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.3258417250281807</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5695600463500732</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.8471990513510423</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1718142608937425</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.536550477393912</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.955720977427537</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.4511371473835455</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.027696816903461</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.8442845349817363</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.7672212721795022</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.7528020878134773</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.5889451003180159</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.3548209584717323</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.7705458259580471</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.8028577520804134</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.3906685792909581</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.372974204996261</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.1415286575936454</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.638989556805531</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.2943179749734988</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.1177283607522366</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.35764439470295</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.753728091983958</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.3312287152847653</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0103690574574107</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.86732363423001446</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.87170063728391312</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.88276559131629351</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.73995835092813511</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.53085447641955397</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6247-44C3-AA46-68B2251C8727}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7741,7 +9332,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7779,7 +9370,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509444367"/>
@@ -7858,7 +9449,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7896,7 +9487,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509445327"/>
@@ -7944,7 +9535,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8028,7 +9619,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8113,7 +9704,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -8284,7 +9875,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -8509,7 +10100,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -8705,7 +10296,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8743,7 +10334,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509444367"/>
@@ -8822,7 +10413,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8860,7 +10451,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509445327"/>
@@ -8914,7 +10505,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8951,7 +10542,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9694,7 +11285,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="347035039"/>
@@ -9756,7 +11347,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="347034559"/>
@@ -9804,7 +11395,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="505718671"/>
@@ -9861,7 +11452,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9898,7 +11489,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10061,7 +11652,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -10443,7 +12034,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10481,7 +12072,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509444367"/>
@@ -10560,7 +12151,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10598,7 +12189,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509445327"/>
@@ -10646,7 +12237,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10817,7 +12408,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -10985,7 +12576,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -11207,7 +12798,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -11403,7 +12994,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11441,7 +13032,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509444367"/>
@@ -11520,7 +13111,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11558,7 +13149,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509445327"/>
@@ -11608,7 +13199,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11645,7 +13236,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12388,7 +13979,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="347035039"/>
@@ -12450,7 +14041,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="347034559"/>
@@ -12498,7 +14089,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="505718671"/>
@@ -12555,7 +14146,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12592,7 +14183,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12638,7 +14229,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Total Transported Mass to Deposited Open Trap</a:t>
+              <a:t>Total Transported Mass to Deposited Closed Trap</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -12755,7 +14346,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -13137,7 +14728,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13175,7 +14766,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509444367"/>
@@ -13254,7 +14845,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13292,7 +14883,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509445327"/>
@@ -13340,7 +14931,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13386,7 +14977,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Total Transported Mass to Deposited Open</a:t>
+              <a:t>Total Transported Mass to Deposited Closed</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -13511,7 +15102,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -13679,7 +15270,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -13901,7 +15492,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -14097,7 +15688,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -14135,7 +15726,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509444367"/>
@@ -14214,7 +15805,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -14252,7 +15843,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509445327"/>
@@ -14316,7 +15907,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -14353,7 +15944,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14439,6 +16030,43 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -14478,7 +16106,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent4"/>
@@ -14515,7 +16143,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
   <a:schemeClr val="accent5"/>
@@ -14552,7 +16180,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -14592,7 +16220,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
   <a:schemeClr val="accent5"/>
@@ -14629,7 +16257,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -18587,6 +20215,522 @@
 </file>
 
 <file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -23344,16 +25488,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>435429</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>76840</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:rowOff>16008</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>721179</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>93650</xdr:colOff>
       <xdr:row>110</xdr:row>
-      <xdr:rowOff>103414</xdr:rowOff>
+      <xdr:rowOff>92208</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23382,16 +25526,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>441033</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>82444</xdr:colOff>
       <xdr:row>110</xdr:row>
-      <xdr:rowOff>188606</xdr:rowOff>
+      <xdr:rowOff>177400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>692606</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>65077</xdr:colOff>
       <xdr:row>126</xdr:row>
-      <xdr:rowOff>86714</xdr:rowOff>
+      <xdr:rowOff>75508</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23420,16 +25564,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>460543</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>101954</xdr:colOff>
       <xdr:row>126</xdr:row>
-      <xdr:rowOff>178500</xdr:rowOff>
+      <xdr:rowOff>167294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>712116</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>84587</xdr:colOff>
       <xdr:row>142</xdr:row>
-      <xdr:rowOff>76608</xdr:rowOff>
+      <xdr:rowOff>65402</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23458,16 +25602,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>375397</xdr:colOff>
       <xdr:row>144</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:rowOff>16008</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
       <xdr:row>158</xdr:row>
-      <xdr:rowOff>103414</xdr:rowOff>
+      <xdr:rowOff>92208</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23496,16 +25640,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>481854</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
       <xdr:row>158</xdr:row>
-      <xdr:rowOff>188606</xdr:rowOff>
+      <xdr:rowOff>177400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>733427</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>587751</xdr:colOff>
       <xdr:row>174</xdr:row>
-      <xdr:rowOff>86714</xdr:rowOff>
+      <xdr:rowOff>75508</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23534,16 +25678,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>501364</xdr:colOff>
-      <xdr:row>174</xdr:row>
-      <xdr:rowOff>178500</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>501363</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>21618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>752937</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>102995</xdr:colOff>
       <xdr:row>190</xdr:row>
-      <xdr:rowOff>76608</xdr:rowOff>
+      <xdr:rowOff>110226</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23570,6 +25714,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>330573</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C459F7A9-EC35-4251-AD0C-85FAA520C852}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -23577,13 +25759,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>435429</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>108857</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -23613,13 +25795,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>435428</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>138792</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>108856</xdr:colOff>
       <xdr:row>79</xdr:row>
       <xdr:rowOff>24492</xdr:rowOff>
@@ -23649,13 +25831,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>408215</xdr:colOff>
       <xdr:row>79</xdr:row>
       <xdr:rowOff>149679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>81643</xdr:colOff>
       <xdr:row>94</xdr:row>
       <xdr:rowOff>35379</xdr:rowOff>
@@ -23687,16 +25869,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>483055</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>10206</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>578306</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>91849</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>197305</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>86406</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>251735</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>168049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23725,16 +25907,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>483054</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>187098</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>578305</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>78241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>197304</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>251734</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>10205</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23763,16 +25945,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>595313</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>132670</xdr:colOff>
       <xdr:row>146</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>61232</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>261938</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>411616</xdr:colOff>
       <xdr:row>160</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>137432</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23801,16 +25983,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>595312</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>132669</xdr:colOff>
       <xdr:row>161</xdr:row>
-      <xdr:rowOff>34016</xdr:rowOff>
+      <xdr:rowOff>47623</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>261937</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>411615</xdr:colOff>
       <xdr:row>181</xdr:row>
-      <xdr:rowOff>23811</xdr:rowOff>
+      <xdr:rowOff>37418</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -24159,20 +26341,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35926A3-FD56-42E1-AE95-43809395658A}">
   <dimension ref="A1:AB190"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="AA51" sqref="AA51"/>
+    <sheetView tabSelected="1" topLeftCell="Q52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AS75" sqref="AS75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="15" max="15" width="12.44140625" customWidth="1"/>
-    <col min="16" max="16" width="17.33203125" customWidth="1"/>
-    <col min="24" max="24" width="13.109375" customWidth="1"/>
-    <col min="26" max="26" width="14.44140625" customWidth="1"/>
-    <col min="27" max="27" width="13.5546875" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" customWidth="1"/>
+    <col min="24" max="24" width="13.140625" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" customWidth="1"/>
+    <col min="27" max="27" width="13.5703125" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -24265,7 +26449,7 @@
         <v>100.00000000000006</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -24336,7 +26520,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.37</v>
       </c>
@@ -24407,7 +26591,7 @@
         <v>0.17058377558756638</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.44</v>
       </c>
@@ -24478,7 +26662,7 @@
         <v>0.18006065200909782</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.52</v>
       </c>
@@ -24549,7 +26733,7 @@
         <v>0.18953752843062929</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.61</v>
       </c>
@@ -24620,7 +26804,7 @@
         <v>0.20849128127369224</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.72</v>
       </c>
@@ -24691,7 +26875,7 @@
         <v>0.22744503411675515</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.85</v>
       </c>
@@ -24762,7 +26946,7 @@
         <v>0.26535253980288104</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1.01</v>
       </c>
@@ -24833,7 +27017,7 @@
         <v>0.32221379833206981</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1.19</v>
       </c>
@@ -24904,7 +27088,7 @@
         <v>0.44541319181197886</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1.4</v>
       </c>
@@ -24975,7 +27159,7 @@
         <v>0.63495072024260824</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1.65</v>
       </c>
@@ -25046,7 +27230,7 @@
         <v>0.76762699014404867</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1.95</v>
       </c>
@@ -25117,7 +27301,7 @@
         <v>0.87187263078089483</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2.2999999999999998</v>
       </c>
@@ -25188,7 +27372,7 @@
         <v>0.96664139499620938</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2.72</v>
       </c>
@@ -25259,7 +27443,7 @@
         <v>1.0235026535253984</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>3.2</v>
       </c>
@@ -25330,7 +27514,7 @@
         <v>1.0708870356330553</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>3.78</v>
       </c>
@@ -25401,7 +27585,7 @@
         <v>1.1277482941622443</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>4.46</v>
       </c>
@@ -25472,7 +27656,7 @@
         <v>1.2035633055344961</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>5.27</v>
       </c>
@@ -25543,7 +27727,7 @@
         <v>1.2888551933282792</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>6.21</v>
       </c>
@@ -25614,7 +27798,7 @@
         <v>1.4025777103866568</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>7.33</v>
       </c>
@@ -25685,7 +27869,7 @@
         <v>1.5447308567096287</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>8.65</v>
       </c>
@@ -25756,7 +27940,7 @@
         <v>1.7153146322971953</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>10.210000000000001</v>
       </c>
@@ -25827,7 +28011,7 @@
         <v>1.9522365428354818</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>12.05</v>
       </c>
@@ -25898,7 +28082,7 @@
         <v>2.2744503411675514</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>14.22</v>
       </c>
@@ -25969,7 +28153,7 @@
         <v>2.7482941622441248</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>16.78</v>
       </c>
@@ -26040,7 +28224,7 @@
         <v>3.3737680060652018</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>19.809999999999999</v>
       </c>
@@ -26111,7 +28295,7 @@
         <v>4.1319181197877191</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>23.37</v>
       </c>
@@ -26182,7 +28366,7 @@
         <v>4.9753601213040195</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27.58</v>
       </c>
@@ -26253,7 +28437,7 @@
         <v>5.8188021228203191</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>32.549999999999997</v>
       </c>
@@ -26324,7 +28508,7 @@
         <v>6.3968915845337389</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>38.409999999999997</v>
       </c>
@@ -26395,7 +28579,7 @@
         <v>6.6148597422289619</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45.32</v>
       </c>
@@ -26466,7 +28650,7 @@
         <v>6.4063684609552691</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>53.48</v>
       </c>
@@ -26537,7 +28721,7 @@
         <v>5.7240333586050047</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>63.11</v>
       </c>
@@ -26608,7 +28792,7 @@
         <v>4.9184988627748307</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>74.48</v>
       </c>
@@ -26679,7 +28863,7 @@
         <v>3.9992418498862778</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>87.89</v>
       </c>
@@ -26750,7 +28934,7 @@
         <v>3.2410917361637606</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>103.72</v>
       </c>
@@ -26821,7 +29005,7 @@
         <v>2.5682335102350269</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>122.39</v>
       </c>
@@ -26892,7 +29076,7 @@
         <v>2.1322971948445799</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>144.43</v>
       </c>
@@ -26963,7 +29147,7 @@
         <v>1.87642153146323</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>170.44</v>
       </c>
@@ -27034,7 +29218,7 @@
         <v>1.8290371493555728</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>201.13</v>
       </c>
@@ -27105,7 +29289,7 @@
         <v>1.8858984078847614</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>237.35</v>
       </c>
@@ -27176,7 +29360,7 @@
         <v>2.1038665655799855</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>280.08999999999997</v>
       </c>
@@ -27247,7 +29431,7 @@
         <v>2.359742228961335</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>330.52</v>
       </c>
@@ -27318,7 +29502,7 @@
         <v>2.5208491281273697</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>390.04</v>
       </c>
@@ -27389,7 +29573,7 @@
         <v>2.388172858225929</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>460.27</v>
       </c>
@@ -27460,7 +29644,7 @@
         <v>2.1322971948445799</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>25</v>
       </c>
@@ -27535,7 +29719,7 @@
         <v>147.88570000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>30</v>
       </c>
@@ -27627,8 +29811,11 @@
         <f t="shared" si="1"/>
         <v>6.5748000000000015</v>
       </c>
+      <c r="AB50" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -27707,9 +29894,11 @@
       <c r="AA51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AB51" s="1"/>
+      <c r="AB51" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>0.37</v>
       </c>
@@ -27811,9 +30000,11 @@
       <c r="AA52" s="3">
         <v>121.65750555274199</v>
       </c>
-      <c r="AB52" s="3"/>
+      <c r="AB52" s="3">
+        <v>121.633010010013</v>
+      </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>0.44</v>
       </c>
@@ -27915,9 +30106,11 @@
       <c r="AA53" s="3">
         <v>128.88132881832999</v>
       </c>
-      <c r="AB53" s="3"/>
+      <c r="AB53" s="3">
+        <v>128.98334861110601</v>
+      </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>0.52</v>
       </c>
@@ -28019,9 +30212,11 @@
       <c r="AA54" s="3">
         <v>139.96369329914501</v>
       </c>
-      <c r="AB54" s="3"/>
+      <c r="AB54" s="3">
+        <v>140.26905973822801</v>
+      </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>0.61</v>
       </c>
@@ -28123,9 +30318,11 @@
       <c r="AA55" s="3">
         <v>155.23070547879399</v>
       </c>
-      <c r="AB55" s="3"/>
+      <c r="AB55" s="3">
+        <v>155.86958589206</v>
+      </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>0.72</v>
       </c>
@@ -28227,9 +30424,11 @@
       <c r="AA56" s="3">
         <v>173.60661472490401</v>
       </c>
-      <c r="AB56" s="3"/>
+      <c r="AB56" s="3">
+        <v>174.65833879102999</v>
+      </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>0.85</v>
       </c>
@@ -28331,9 +30530,11 @@
       <c r="AA57" s="3">
         <v>196.722202609486</v>
       </c>
-      <c r="AB57" s="3"/>
+      <c r="AB57" s="3">
+        <v>198.21786131396399</v>
+      </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1.01</v>
       </c>
@@ -28435,9 +30636,11 @@
       <c r="AA58" s="3">
         <v>237.71157463356201</v>
       </c>
-      <c r="AB58" s="3"/>
+      <c r="AB58" s="3">
+        <v>239.60206372725801</v>
+      </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1.19</v>
       </c>
@@ -28539,9 +30742,11 @@
       <c r="AA59" s="3">
         <v>333.86380302206402</v>
       </c>
-      <c r="AB59" s="3"/>
+      <c r="AB59" s="3">
+        <v>336.55964258452002</v>
+      </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1.4</v>
       </c>
@@ -28643,9 +30848,11 @@
       <c r="AA60" s="3">
         <v>503.59374080472003</v>
       </c>
-      <c r="AB60" s="3"/>
+      <c r="AB60" s="3">
+        <v>508.07862446360298</v>
+      </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1.65</v>
       </c>
@@ -28747,9 +30954,11 @@
       <c r="AA61" s="3">
         <v>646.72442391640595</v>
       </c>
-      <c r="AB61" s="3"/>
+      <c r="AB61" s="3">
+        <v>652.965913689275</v>
+      </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1.95</v>
       </c>
@@ -28851,9 +31060,11 @@
       <c r="AA62" s="3">
         <v>785.41744446486996</v>
       </c>
-      <c r="AB62" s="3"/>
+      <c r="AB62" s="3">
+        <v>793.446213053306</v>
+      </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>2.2999999999999998</v>
       </c>
@@ -28955,9 +31166,11 @@
       <c r="AA63" s="3">
         <v>953.87745779617899</v>
       </c>
-      <c r="AB63" s="3"/>
+      <c r="AB63" s="3">
+        <v>963.97927235100497</v>
+      </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2.72</v>
       </c>
@@ -29059,9 +31272,11 @@
       <c r="AA64" s="3">
         <v>1116.2948517203099</v>
       </c>
-      <c r="AB64" s="3"/>
+      <c r="AB64" s="3">
+        <v>1128.2743118988301</v>
+      </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>3.2</v>
       </c>
@@ -29163,9 +31378,11 @@
       <c r="AA65" s="3">
         <v>1306.00374278711</v>
       </c>
-      <c r="AB65" s="3"/>
+      <c r="AB65" s="3">
+        <v>1319.5137642981001</v>
+      </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>3.78</v>
       </c>
@@ -29267,9 +31484,11 @@
       <c r="AA66" s="3">
         <v>1537.51938798023</v>
       </c>
-      <c r="AB66" s="3"/>
+      <c r="AB66" s="3">
+        <v>1553.0988409178501</v>
+      </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>4.46</v>
       </c>
@@ -29371,9 +31590,11 @@
       <c r="AA67" s="3">
         <v>1841.9935668057999</v>
       </c>
-      <c r="AB67" s="3"/>
+      <c r="AB67" s="3">
+        <v>1860.5253424360701</v>
+      </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>5.27</v>
       </c>
@@ -29475,9 +31696,11 @@
       <c r="AA68" s="3">
         <v>2206.9467729379598</v>
       </c>
-      <c r="AB68" s="3"/>
+      <c r="AB68" s="3">
+        <v>2228.0832535323502</v>
+      </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>6.21</v>
       </c>
@@ -29579,9 +31802,11 @@
       <c r="AA69" s="3">
         <v>2597.4789778229701</v>
       </c>
-      <c r="AB69" s="3"/>
+      <c r="AB69" s="3">
+        <v>2619.7208638728198</v>
+      </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>7.33</v>
       </c>
@@ -29683,9 +31908,11 @@
       <c r="AA70" s="3">
         <v>2980.7580535214502</v>
       </c>
-      <c r="AB70" s="3"/>
+      <c r="AB70" s="3">
+        <v>3001.7037253107901</v>
+      </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>8.65</v>
       </c>
@@ -29787,9 +32014,11 @@
       <c r="AA71" s="3">
         <v>3425.2176548105299</v>
       </c>
-      <c r="AB71" s="3"/>
+      <c r="AB71" s="3">
+        <v>3443.7330244719401</v>
+      </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>10.210000000000001</v>
       </c>
@@ -29891,9 +32120,11 @@
       <c r="AA72" s="3">
         <v>3907.3076093792702</v>
       </c>
-      <c r="AB72" s="3"/>
+      <c r="AB72" s="3">
+        <v>3922.5219288557901</v>
+      </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>12.05</v>
       </c>
@@ -29995,9 +32226,11 @@
       <c r="AA73" s="3">
         <v>4387.1923378880701</v>
       </c>
-      <c r="AB73" s="3"/>
+      <c r="AB73" s="3">
+        <v>4397.1735021970599</v>
+      </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>14.22</v>
       </c>
@@ -30099,9 +32332,11 @@
       <c r="AA74" s="3">
         <v>5084.0108994927496</v>
       </c>
-      <c r="AB74" s="3"/>
+      <c r="AB74" s="3">
+        <v>5086.4438377869301</v>
+      </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>16.78</v>
       </c>
@@ -30203,9 +32438,11 @@
       <c r="AA75" s="3">
         <v>5855.9329239180497</v>
       </c>
-      <c r="AB75" s="3"/>
+      <c r="AB75" s="3">
+        <v>5847.5240320642497</v>
+      </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>19.809999999999999</v>
       </c>
@@ -30307,9 +32544,11 @@
       <c r="AA76" s="3">
         <v>6729.3925509948704</v>
       </c>
-      <c r="AB76" s="3"/>
+      <c r="AB76" s="3">
+        <v>6705.5061788860903</v>
+      </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>23.37</v>
       </c>
@@ -30411,9 +32650,11 @@
       <c r="AA77" s="3">
         <v>7551.1914089311504</v>
       </c>
-      <c r="AB77" s="3"/>
+      <c r="AB77" s="3">
+        <v>7507.8114507325599</v>
+      </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>27.58</v>
       </c>
@@ -30515,9 +32756,11 @@
       <c r="AA78" s="3">
         <v>8447.9647146164407</v>
       </c>
-      <c r="AB78" s="3"/>
+      <c r="AB78" s="3">
+        <v>8383.4098297478995</v>
+      </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>32.549999999999997</v>
       </c>
@@ -30619,9 +32862,11 @@
       <c r="AA79" s="3">
         <v>9255.6222950766205</v>
       </c>
-      <c r="AB79" s="3"/>
+      <c r="AB79" s="3">
+        <v>9172.8590798405203</v>
+      </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>38.409999999999997</v>
       </c>
@@ -30723,9 +32968,11 @@
       <c r="AA80" s="3">
         <v>10073.2921644336</v>
       </c>
-      <c r="AB80" s="3"/>
+      <c r="AB80" s="3">
+        <v>9978.87603984419</v>
+      </c>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>45.32</v>
       </c>
@@ -30827,9 +33074,11 @@
       <c r="AA81" s="3">
         <v>10813.9986110667</v>
       </c>
-      <c r="AB81" s="3"/>
+      <c r="AB81" s="3">
+        <v>10712.125320867</v>
+      </c>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>53.48</v>
       </c>
@@ -30931,9 +33180,11 @@
       <c r="AA82" s="3">
         <v>11153.32864645</v>
       </c>
-      <c r="AB82" s="3"/>
+      <c r="AB82" s="3">
+        <v>11051.812527840601</v>
+      </c>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>63.11</v>
       </c>
@@ -31035,9 +33286,11 @@
       <c r="AA83" s="3">
         <v>11312.308963867201</v>
       </c>
-      <c r="AB83" s="3"/>
+      <c r="AB83" s="3">
+        <v>11226.3041738146</v>
+      </c>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>74.48</v>
       </c>
@@ -31139,9 +33392,11 @@
       <c r="AA84" s="3">
         <v>10659.1857315655</v>
       </c>
-      <c r="AB84" s="3"/>
+      <c r="AB84" s="3">
+        <v>10598.546632346201</v>
+      </c>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>87.89</v>
       </c>
@@ -31243,9 +33498,11 @@
       <c r="AA85" s="3">
         <v>9729.4529516752791</v>
       </c>
-      <c r="AB85" s="3"/>
+      <c r="AB85" s="3">
+        <v>9642.0723391194297</v>
+      </c>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>103.72</v>
       </c>
@@ -31347,9 +33604,11 @@
       <c r="AA86" s="3">
         <v>8240.9416491218199</v>
       </c>
-      <c r="AB86" s="3"/>
+      <c r="AB86" s="3">
+        <v>7649.5509238986297</v>
+      </c>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>122.39</v>
       </c>
@@ -31451,9 +33710,11 @@
       <c r="AA87" s="3">
         <v>6921.7972474706603</v>
       </c>
-      <c r="AB87" s="3"/>
+      <c r="AB87" s="3">
+        <v>5251.0575747032299</v>
+      </c>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>144.43</v>
       </c>
@@ -31555,9 +33816,11 @@
       <c r="AA88" s="3">
         <v>5559.5678278471896</v>
       </c>
-      <c r="AB88" s="3"/>
+      <c r="AB88" s="3">
+        <v>2273.5544804247802</v>
+      </c>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>170.44</v>
       </c>
@@ -31659,9 +33922,11 @@
       <c r="AA89" s="3">
         <v>4342.3819825568198</v>
       </c>
-      <c r="AB89" s="3"/>
+      <c r="AB89" s="3">
+        <v>752.90329431254099</v>
+      </c>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>201.13</v>
       </c>
@@ -31763,9 +34028,11 @@
       <c r="AA90" s="3">
         <v>3186.85359108996</v>
       </c>
-      <c r="AB90" s="3"/>
+      <c r="AB90" s="3">
+        <v>435.88657235092001</v>
+      </c>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>237.35</v>
       </c>
@@ -31867,9 +34134,11 @@
       <c r="AA91" s="3">
         <v>2445.48230751956</v>
       </c>
-      <c r="AB91" s="3"/>
+      <c r="AB91" s="3">
+        <v>299.27689881532399</v>
+      </c>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>280.08999999999997</v>
       </c>
@@ -31971,9 +34240,11 @@
       <c r="AA92" s="3">
         <v>2011.4790371998299</v>
       </c>
-      <c r="AB92" s="3"/>
+      <c r="AB92" s="3">
+        <v>222.33215254229</v>
+      </c>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>330.52</v>
       </c>
@@ -32075,9 +34346,11 @@
       <c r="AA93" s="3">
         <v>1736.9555325246999</v>
       </c>
-      <c r="AB93" s="3"/>
+      <c r="AB93" s="3">
+        <v>40.677125700820099</v>
+      </c>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>390.04</v>
       </c>
@@ -32179,9 +34452,11 @@
       <c r="AA94" s="3">
         <v>1476.52847657858</v>
       </c>
-      <c r="AB94" s="3"/>
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>460.27</v>
       </c>
@@ -32283,18 +34558,23 @@
       <c r="AA95" s="3">
         <v>1380.2915810214399</v>
       </c>
-      <c r="AB95" s="3"/>
+      <c r="AB95" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="Y96" s="64"/>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>27</v>
       </c>
+      <c r="Q97" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="Y97" s="64"/>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>0</v>
       </c>
@@ -32340,8 +34620,11 @@
       <c r="P98" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q98" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>0.37</v>
       </c>
@@ -32388,8 +34671,11 @@
       <c r="P99" s="3">
         <v>121.65750555274199</v>
       </c>
+      <c r="Q99" s="3">
+        <v>121.633010010013</v>
+      </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>0.44</v>
       </c>
@@ -32436,8 +34722,11 @@
       <c r="P100" s="3">
         <v>128.88132881832999</v>
       </c>
+      <c r="Q100" s="3">
+        <v>128.98334861110601</v>
+      </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>0.52</v>
       </c>
@@ -32484,8 +34773,11 @@
       <c r="P101" s="3">
         <v>139.96369329914501</v>
       </c>
+      <c r="Q101" s="3">
+        <v>140.26905973822801</v>
+      </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>0.61</v>
       </c>
@@ -32532,8 +34824,11 @@
       <c r="P102" s="3">
         <v>155.23070547879399</v>
       </c>
+      <c r="Q102" s="3">
+        <v>155.86958589206</v>
+      </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>0.72</v>
       </c>
@@ -32580,8 +34875,11 @@
       <c r="P103" s="3">
         <v>173.60661472490401</v>
       </c>
+      <c r="Q103" s="3">
+        <v>174.65833879102999</v>
+      </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>0.85</v>
       </c>
@@ -32628,8 +34926,11 @@
       <c r="P104" s="3">
         <v>196.722202609486</v>
       </c>
+      <c r="Q104" s="3">
+        <v>198.21786131396399</v>
+      </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>1.01</v>
       </c>
@@ -32676,8 +34977,11 @@
       <c r="P105" s="3">
         <v>237.71157463356201</v>
       </c>
+      <c r="Q105" s="3">
+        <v>239.60206372725801</v>
+      </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>1.19</v>
       </c>
@@ -32724,8 +35028,11 @@
       <c r="P106" s="3">
         <v>333.86380302206402</v>
       </c>
+      <c r="Q106" s="3">
+        <v>336.55964258452002</v>
+      </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>1.4</v>
       </c>
@@ -32772,8 +35079,11 @@
       <c r="P107" s="3">
         <v>503.59374080472003</v>
       </c>
+      <c r="Q107" s="3">
+        <v>508.07862446360298</v>
+      </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>1.65</v>
       </c>
@@ -32820,8 +35130,11 @@
       <c r="P108" s="3">
         <v>646.72442391640595</v>
       </c>
+      <c r="Q108" s="3">
+        <v>652.965913689275</v>
+      </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>1.95</v>
       </c>
@@ -32868,8 +35181,11 @@
       <c r="P109" s="3">
         <v>785.41744446486996</v>
       </c>
+      <c r="Q109" s="3">
+        <v>793.446213053306</v>
+      </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>2.2999999999999998</v>
       </c>
@@ -32916,8 +35232,11 @@
       <c r="P110" s="3">
         <v>953.87745779617899</v>
       </c>
+      <c r="Q110" s="3">
+        <v>963.97927235100497</v>
+      </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>2.72</v>
       </c>
@@ -32964,8 +35283,11 @@
       <c r="P111" s="3">
         <v>1116.2948517203099</v>
       </c>
+      <c r="Q111" s="3">
+        <v>1128.2743118988301</v>
+      </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>3.2</v>
       </c>
@@ -33012,8 +35334,11 @@
       <c r="P112" s="3">
         <v>1306.00374278711</v>
       </c>
+      <c r="Q112" s="3">
+        <v>1319.5137642981001</v>
+      </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>3.78</v>
       </c>
@@ -33060,8 +35385,11 @@
       <c r="P113" s="3">
         <v>1537.51938798023</v>
       </c>
+      <c r="Q113" s="3">
+        <v>1553.0988409178501</v>
+      </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>4.46</v>
       </c>
@@ -33108,8 +35436,11 @@
       <c r="P114" s="3">
         <v>1841.9935668057999</v>
       </c>
+      <c r="Q114" s="3">
+        <v>1860.5253424360701</v>
+      </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>5.27</v>
       </c>
@@ -33156,8 +35487,11 @@
       <c r="P115" s="3">
         <v>2206.9467729379598</v>
       </c>
+      <c r="Q115" s="3">
+        <v>2228.0832535323502</v>
+      </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>6.21</v>
       </c>
@@ -33204,8 +35538,11 @@
       <c r="P116" s="3">
         <v>2597.4789778229701</v>
       </c>
+      <c r="Q116" s="3">
+        <v>2619.7208638728198</v>
+      </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>7.33</v>
       </c>
@@ -33252,8 +35589,11 @@
       <c r="P117" s="3">
         <v>2980.7580535214502</v>
       </c>
+      <c r="Q117" s="3">
+        <v>3001.7037253107901</v>
+      </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>8.65</v>
       </c>
@@ -33300,8 +35640,11 @@
       <c r="P118" s="3">
         <v>3425.2176548105299</v>
       </c>
+      <c r="Q118" s="3">
+        <v>3443.7330244719401</v>
+      </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>10.210000000000001</v>
       </c>
@@ -33348,8 +35691,11 @@
       <c r="P119" s="3">
         <v>3907.3076093792702</v>
       </c>
+      <c r="Q119" s="3">
+        <v>3922.5219288557901</v>
+      </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>12.05</v>
       </c>
@@ -33396,8 +35742,11 @@
       <c r="P120" s="3">
         <v>4387.1923378880701</v>
       </c>
+      <c r="Q120" s="3">
+        <v>4397.1735021970599</v>
+      </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>14.22</v>
       </c>
@@ -33444,8 +35793,11 @@
       <c r="P121" s="3">
         <v>5084.0108994927496</v>
       </c>
+      <c r="Q121" s="3">
+        <v>5086.4438377869301</v>
+      </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>16.78</v>
       </c>
@@ -33492,8 +35844,11 @@
       <c r="P122" s="3">
         <v>5855.9329239180497</v>
       </c>
+      <c r="Q122" s="3">
+        <v>5847.5240320642497</v>
+      </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>19.809999999999999</v>
       </c>
@@ -33540,8 +35895,11 @@
       <c r="P123" s="3">
         <v>6729.3925509948704</v>
       </c>
+      <c r="Q123" s="3">
+        <v>6705.5061788860903</v>
+      </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>23.37</v>
       </c>
@@ -33588,8 +35946,11 @@
       <c r="P124" s="3">
         <v>7551.1914089311504</v>
       </c>
+      <c r="Q124" s="3">
+        <v>7507.8114507325599</v>
+      </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>27.58</v>
       </c>
@@ -33636,8 +35997,11 @@
       <c r="P125" s="3">
         <v>8447.9647146164407</v>
       </c>
+      <c r="Q125" s="3">
+        <v>8383.4098297478995</v>
+      </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>32.549999999999997</v>
       </c>
@@ -33684,8 +36048,11 @@
       <c r="P126" s="3">
         <v>9255.6222950766205</v>
       </c>
+      <c r="Q126" s="3">
+        <v>9172.8590798405203</v>
+      </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>38.409999999999997</v>
       </c>
@@ -33732,8 +36099,11 @@
       <c r="P127" s="3">
         <v>10073.2921644336</v>
       </c>
+      <c r="Q127" s="3">
+        <v>9978.87603984419</v>
+      </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>45.32</v>
       </c>
@@ -33780,8 +36150,11 @@
       <c r="P128" s="3">
         <v>10813.9986110667</v>
       </c>
+      <c r="Q128" s="3">
+        <v>10712.125320867</v>
+      </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>53.48</v>
       </c>
@@ -33828,8 +36201,11 @@
       <c r="P129" s="3">
         <v>11153.32864645</v>
       </c>
+      <c r="Q129" s="3">
+        <v>11051.812527840601</v>
+      </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>63.11</v>
       </c>
@@ -33876,8 +36252,11 @@
       <c r="P130" s="3">
         <v>11312.308963867201</v>
       </c>
+      <c r="Q130" s="3">
+        <v>11226.3041738146</v>
+      </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>74.48</v>
       </c>
@@ -33924,8 +36303,11 @@
       <c r="P131" s="3">
         <v>10659.1857315655</v>
       </c>
+      <c r="Q131" s="3">
+        <v>10598.546632346201</v>
+      </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>87.89</v>
       </c>
@@ -33972,8 +36354,11 @@
       <c r="P132" s="3">
         <v>9729.4529516752791</v>
       </c>
+      <c r="Q132" s="3">
+        <v>9642.0723391194297</v>
+      </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>103.72</v>
       </c>
@@ -34020,8 +36405,11 @@
       <c r="P133" s="3">
         <v>8240.9416491218199</v>
       </c>
+      <c r="Q133" s="3">
+        <v>7649.5509238986297</v>
+      </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>122.39</v>
       </c>
@@ -34068,8 +36456,11 @@
       <c r="P134" s="3">
         <v>6921.7972474706603</v>
       </c>
+      <c r="Q134" s="3">
+        <v>5251.0575747032299</v>
+      </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>144.43</v>
       </c>
@@ -34116,8 +36507,11 @@
       <c r="P135" s="3">
         <v>5559.5678278471896</v>
       </c>
+      <c r="Q135" s="3">
+        <v>2273.5544804247802</v>
+      </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>170.44</v>
       </c>
@@ -34164,8 +36558,11 @@
       <c r="P136" s="3">
         <v>4342.3819825568198</v>
       </c>
+      <c r="Q136" s="3">
+        <v>752.90329431254099</v>
+      </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>201.13</v>
       </c>
@@ -34212,8 +36609,11 @@
       <c r="P137" s="3">
         <v>3186.85359108996</v>
       </c>
+      <c r="Q137" s="3">
+        <v>435.88657235092001</v>
+      </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>237.35</v>
       </c>
@@ -34260,8 +36660,11 @@
       <c r="P138" s="3">
         <v>2445.48230751956</v>
       </c>
+      <c r="Q138" s="3">
+        <v>299.27689881532399</v>
+      </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>280.08999999999997</v>
       </c>
@@ -34308,8 +36711,11 @@
       <c r="P139" s="3">
         <v>2011.4790371998299</v>
       </c>
+      <c r="Q139" s="3">
+        <v>222.33215254229</v>
+      </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>330.52</v>
       </c>
@@ -34356,8 +36762,11 @@
       <c r="P140" s="3">
         <v>1736.9555325246999</v>
       </c>
+      <c r="Q140" s="3">
+        <v>40.677125700820099</v>
+      </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>390.04</v>
       </c>
@@ -34404,9 +36813,11 @@
       <c r="P141" s="3">
         <v>1476.52847657858</v>
       </c>
-      <c r="Q141" s="3"/>
+      <c r="Q141" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>460.27</v>
       </c>
@@ -34453,16 +36864,18 @@
       <c r="P142" s="3">
         <v>1380.2915810214399</v>
       </c>
-      <c r="Q142" s="3"/>
+      <c r="Q142" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M143" s="64"/>
       <c r="N143" s="3"/>
       <c r="O143" s="3"/>
       <c r="P143" s="3"/>
       <c r="Q143" s="3"/>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>28</v>
       </c>
@@ -34470,9 +36883,11 @@
       <c r="N144" s="3"/>
       <c r="O144" s="3"/>
       <c r="P144" s="3"/>
-      <c r="Q144" s="3"/>
+      <c r="Q144" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>0</v>
       </c>
@@ -34518,8 +36933,11 @@
       <c r="P145" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Q145" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>0.37</v>
       </c>
@@ -34566,8 +36984,11 @@
       <c r="P146" s="3">
         <v>121.65750555274199</v>
       </c>
+      <c r="Q146" s="3">
+        <v>121.633010010013</v>
+      </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>0.44</v>
       </c>
@@ -34614,8 +37035,11 @@
       <c r="P147" s="3">
         <v>128.88132881832999</v>
       </c>
+      <c r="Q147" s="3">
+        <v>128.98334861110601</v>
+      </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>0.52</v>
       </c>
@@ -34662,8 +37086,11 @@
       <c r="P148" s="3">
         <v>139.96369329914501</v>
       </c>
+      <c r="Q148" s="3">
+        <v>140.26905973822801</v>
+      </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>0.61</v>
       </c>
@@ -34710,8 +37137,11 @@
       <c r="P149" s="3">
         <v>155.23070547879399</v>
       </c>
+      <c r="Q149" s="3">
+        <v>155.86958589206</v>
+      </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>0.72</v>
       </c>
@@ -34758,8 +37188,11 @@
       <c r="P150" s="3">
         <v>173.60661472490401</v>
       </c>
+      <c r="Q150" s="3">
+        <v>174.65833879102999</v>
+      </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>0.85</v>
       </c>
@@ -34806,8 +37239,11 @@
       <c r="P151" s="3">
         <v>196.722202609486</v>
       </c>
+      <c r="Q151" s="3">
+        <v>198.21786131396399</v>
+      </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>1.01</v>
       </c>
@@ -34854,8 +37290,11 @@
       <c r="P152" s="3">
         <v>237.71157463356201</v>
       </c>
+      <c r="Q152" s="3">
+        <v>239.60206372725801</v>
+      </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>1.19</v>
       </c>
@@ -34902,8 +37341,11 @@
       <c r="P153" s="3">
         <v>333.86380302206402</v>
       </c>
+      <c r="Q153" s="3">
+        <v>336.55964258452002</v>
+      </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>1.4</v>
       </c>
@@ -34950,8 +37392,11 @@
       <c r="P154" s="3">
         <v>503.59374080472003</v>
       </c>
+      <c r="Q154" s="3">
+        <v>508.07862446360298</v>
+      </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>1.65</v>
       </c>
@@ -34998,8 +37443,11 @@
       <c r="P155" s="3">
         <v>646.72442391640595</v>
       </c>
+      <c r="Q155" s="3">
+        <v>652.965913689275</v>
+      </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>1.95</v>
       </c>
@@ -35046,8 +37494,11 @@
       <c r="P156" s="3">
         <v>785.41744446486996</v>
       </c>
+      <c r="Q156" s="3">
+        <v>793.446213053306</v>
+      </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>2.2999999999999998</v>
       </c>
@@ -35094,8 +37545,11 @@
       <c r="P157" s="3">
         <v>953.87745779617899</v>
       </c>
+      <c r="Q157" s="3">
+        <v>963.97927235100497</v>
+      </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>2.72</v>
       </c>
@@ -35142,8 +37596,11 @@
       <c r="P158" s="3">
         <v>1116.2948517203099</v>
       </c>
+      <c r="Q158" s="3">
+        <v>1128.2743118988301</v>
+      </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>3.2</v>
       </c>
@@ -35190,8 +37647,11 @@
       <c r="P159" s="3">
         <v>1306.00374278711</v>
       </c>
+      <c r="Q159" s="3">
+        <v>1319.5137642981001</v>
+      </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>3.78</v>
       </c>
@@ -35238,8 +37698,11 @@
       <c r="P160" s="3">
         <v>1537.51938798023</v>
       </c>
+      <c r="Q160" s="3">
+        <v>1553.0988409178501</v>
+      </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>4.46</v>
       </c>
@@ -35286,8 +37749,11 @@
       <c r="P161" s="3">
         <v>1841.9935668057999</v>
       </c>
+      <c r="Q161" s="3">
+        <v>1860.5253424360701</v>
+      </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>5.27</v>
       </c>
@@ -35334,8 +37800,11 @@
       <c r="P162" s="3">
         <v>2206.9467729379598</v>
       </c>
+      <c r="Q162" s="3">
+        <v>2228.0832535323502</v>
+      </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>6.21</v>
       </c>
@@ -35382,8 +37851,11 @@
       <c r="P163" s="3">
         <v>2597.4789778229701</v>
       </c>
+      <c r="Q163" s="3">
+        <v>2619.7208638728198</v>
+      </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>7.33</v>
       </c>
@@ -35430,8 +37902,11 @@
       <c r="P164" s="3">
         <v>2980.7580535214502</v>
       </c>
+      <c r="Q164" s="3">
+        <v>3001.7037253107901</v>
+      </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>8.65</v>
       </c>
@@ -35478,8 +37953,11 @@
       <c r="P165" s="3">
         <v>3425.2176548105299</v>
       </c>
+      <c r="Q165" s="3">
+        <v>3443.7330244719401</v>
+      </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>10.210000000000001</v>
       </c>
@@ -35526,8 +38004,11 @@
       <c r="P166" s="3">
         <v>3907.3076093792702</v>
       </c>
+      <c r="Q166" s="3">
+        <v>3922.5219288557901</v>
+      </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>12.05</v>
       </c>
@@ -35574,8 +38055,11 @@
       <c r="P167" s="3">
         <v>4387.1923378880701</v>
       </c>
+      <c r="Q167" s="3">
+        <v>4397.1735021970599</v>
+      </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>14.22</v>
       </c>
@@ -35622,8 +38106,11 @@
       <c r="P168" s="3">
         <v>5084.0108994927496</v>
       </c>
+      <c r="Q168" s="3">
+        <v>5086.4438377869301</v>
+      </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>16.78</v>
       </c>
@@ -35670,8 +38157,11 @@
       <c r="P169" s="3">
         <v>5855.9329239180497</v>
       </c>
+      <c r="Q169" s="3">
+        <v>5847.5240320642497</v>
+      </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>19.809999999999999</v>
       </c>
@@ -35718,8 +38208,11 @@
       <c r="P170" s="3">
         <v>6729.3925509948704</v>
       </c>
+      <c r="Q170" s="3">
+        <v>6705.5061788860903</v>
+      </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>23.37</v>
       </c>
@@ -35766,8 +38259,11 @@
       <c r="P171" s="3">
         <v>7551.1914089311504</v>
       </c>
+      <c r="Q171" s="3">
+        <v>7507.8114507325599</v>
+      </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>27.58</v>
       </c>
@@ -35814,8 +38310,11 @@
       <c r="P172" s="3">
         <v>8447.9647146164407</v>
       </c>
+      <c r="Q172" s="3">
+        <v>8383.4098297478995</v>
+      </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>32.549999999999997</v>
       </c>
@@ -35862,8 +38361,11 @@
       <c r="P173" s="3">
         <v>9255.6222950766205</v>
       </c>
+      <c r="Q173" s="3">
+        <v>9172.8590798405203</v>
+      </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>38.409999999999997</v>
       </c>
@@ -35910,8 +38412,11 @@
       <c r="P174" s="3">
         <v>10073.2921644336</v>
       </c>
+      <c r="Q174" s="3">
+        <v>9978.87603984419</v>
+      </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>45.32</v>
       </c>
@@ -35958,8 +38463,11 @@
       <c r="P175" s="3">
         <v>10813.9986110667</v>
       </c>
+      <c r="Q175" s="3">
+        <v>10712.125320867</v>
+      </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>53.48</v>
       </c>
@@ -36006,8 +38514,11 @@
       <c r="P176" s="3">
         <v>11153.32864645</v>
       </c>
+      <c r="Q176" s="3">
+        <v>11051.812527840601</v>
+      </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>63.11</v>
       </c>
@@ -36054,8 +38565,11 @@
       <c r="P177" s="3">
         <v>11312.308963867201</v>
       </c>
+      <c r="Q177" s="3">
+        <v>11226.3041738146</v>
+      </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>74.48</v>
       </c>
@@ -36102,8 +38616,11 @@
       <c r="P178" s="3">
         <v>10659.1857315655</v>
       </c>
+      <c r="Q178" s="3">
+        <v>10598.546632346201</v>
+      </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>87.89</v>
       </c>
@@ -36150,8 +38667,11 @@
       <c r="P179" s="3">
         <v>9729.4529516752791</v>
       </c>
+      <c r="Q179" s="3">
+        <v>9642.0723391194297</v>
+      </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>103.72</v>
       </c>
@@ -36198,8 +38718,11 @@
       <c r="P180" s="3">
         <v>8240.9416491218199</v>
       </c>
+      <c r="Q180" s="3">
+        <v>7649.5509238986297</v>
+      </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>122.39</v>
       </c>
@@ -36246,8 +38769,11 @@
       <c r="P181" s="3">
         <v>6921.7972474706603</v>
       </c>
+      <c r="Q181" s="3">
+        <v>5251.0575747032299</v>
+      </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>144.43</v>
       </c>
@@ -36294,8 +38820,11 @@
       <c r="P182" s="3">
         <v>5559.5678278471896</v>
       </c>
+      <c r="Q182" s="3">
+        <v>2273.5544804247802</v>
+      </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>170.44</v>
       </c>
@@ -36342,8 +38871,11 @@
       <c r="P183" s="3">
         <v>4342.3819825568198</v>
       </c>
+      <c r="Q183" s="3">
+        <v>752.90329431254099</v>
+      </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>201.13</v>
       </c>
@@ -36390,8 +38922,11 @@
       <c r="P184" s="3">
         <v>3186.85359108996</v>
       </c>
+      <c r="Q184" s="3">
+        <v>435.88657235092001</v>
+      </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>237.35</v>
       </c>
@@ -36438,8 +38973,11 @@
       <c r="P185" s="3">
         <v>2445.48230751956</v>
       </c>
+      <c r="Q185" s="3">
+        <v>299.27689881532399</v>
+      </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>280.08999999999997</v>
       </c>
@@ -36486,8 +39024,11 @@
       <c r="P186" s="3">
         <v>2011.4790371998299</v>
       </c>
+      <c r="Q186" s="3">
+        <v>222.33215254229</v>
+      </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>330.52</v>
       </c>
@@ -36534,8 +39075,11 @@
       <c r="P187" s="3">
         <v>1736.9555325246999</v>
       </c>
+      <c r="Q187" s="3">
+        <v>40.677125700820099</v>
+      </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>390.04</v>
       </c>
@@ -36582,8 +39126,11 @@
       <c r="P188" s="3">
         <v>1476.52847657858</v>
       </c>
+      <c r="Q188" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>460.27</v>
       </c>
@@ -36630,8 +39177,11 @@
       <c r="P189" s="3">
         <v>1380.2915810214399</v>
       </c>
+      <c r="Q189" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M190" s="64"/>
       <c r="N190" s="3"/>
       <c r="O190" s="3"/>
@@ -36646,20 +39196,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA639B8-D1FA-4FE5-A79B-A5D5D87AC2E4}">
-  <dimension ref="A1:AX189"/>
+  <dimension ref="A1:AY189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AM81" sqref="AM81"/>
+    <sheetView topLeftCell="B125" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AK167" sqref="AK167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="16" max="16" width="14.44140625" customWidth="1"/>
-    <col min="17" max="17" width="17.6640625" customWidth="1"/>
-    <col min="28" max="28" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" customWidth="1"/>
+    <col min="17" max="17" width="17.7109375" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" customWidth="1"/>
+    <col min="28" max="28" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -36756,7 +39308,7 @@
         <v>100.00000000000001</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -36830,7 +39382,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.37</v>
       </c>
@@ -36904,7 +39456,7 @@
         <v>0.14489179357543622</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.44</v>
       </c>
@@ -36978,7 +39530,7 @@
         <v>0.15259880387200198</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.52</v>
       </c>
@@ -37052,7 +39604,7 @@
         <v>0.16531537086133549</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.61</v>
       </c>
@@ -37126,7 +39678,7 @@
         <v>0.18381219557309328</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.72</v>
       </c>
@@ -37200,7 +39752,7 @@
         <v>0.20963068006658855</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.85</v>
       </c>
@@ -37274,7 +39826,7 @@
         <v>0.24623897897527591</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1.01</v>
       </c>
@@ -37348,7 +39900,7 @@
         <v>0.30673900980331709</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1.19</v>
       </c>
@@ -37422,7 +39974,7 @@
         <v>0.42735372094457114</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1.4</v>
       </c>
@@ -37496,7 +40048,7 @@
         <v>0.61887292681423023</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1.65</v>
       </c>
@@ -37570,7 +40122,7 @@
         <v>0.76954497811209088</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1.95</v>
       </c>
@@ -37644,7 +40196,7 @@
         <v>0.89131574079782971</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2.2999999999999998</v>
       </c>
@@ -37718,7 +40270,7 @@
         <v>1.0084622973056292</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2.72</v>
       </c>
@@ -37792,7 +40344,7 @@
         <v>1.0920833590233676</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>3.2</v>
       </c>
@@ -37866,7 +40418,7 @@
         <v>1.1583636475738333</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>3.78</v>
       </c>
@@ -37940,7 +40492,7 @@
         <v>1.2284974412725813</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>4.46</v>
       </c>
@@ -38014,7 +40566,7 @@
         <v>1.3221376163758554</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>5.27</v>
       </c>
@@ -38088,7 +40640,7 @@
         <v>1.4188605955977556</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>6.21</v>
       </c>
@@ -38162,7 +40714,7 @@
         <v>1.5286854923238178</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>7.33</v>
       </c>
@@ -38236,7 +40788,7 @@
         <v>1.6485295024354152</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>8.65</v>
       </c>
@@ -38310,7 +40862,7 @@
         <v>1.7841728836549724</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>10.210000000000001</v>
       </c>
@@ -38384,7 +40936,7 @@
         <v>1.9683704297428943</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>12.05</v>
       </c>
@@ -38458,7 +41010,7 @@
         <v>2.1841667180467352</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>14.22</v>
       </c>
@@ -38532,7 +41084,7 @@
         <v>2.4870522227017693</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>16.78</v>
       </c>
@@ -38606,7 +41158,7 @@
         <v>2.8666224798076332</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>19.809999999999999</v>
       </c>
@@ -38680,7 +41232,7 @@
         <v>3.3433010666502248</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>23.37</v>
       </c>
@@ -38754,7 +41306,7 @@
         <v>3.9590911893458292</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27.58</v>
       </c>
@@ -38828,7 +41380,7 @@
         <v>4.7768049818114564</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>32.549999999999997</v>
       </c>
@@ -38902,7 +41454,7 @@
         <v>5.6565602071644365</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>38.409999999999997</v>
       </c>
@@ -38976,7 +41528,7 @@
         <v>6.4950829274307909</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45.32</v>
       </c>
@@ -39050,7 +41602,7 @@
         <v>6.9971946482520506</v>
       </c>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>53.48</v>
       </c>
@@ -39124,7 +41676,7 @@
         <v>6.8754238855663106</v>
       </c>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>63.11</v>
       </c>
@@ -39198,7 +41750,7 @@
         <v>6.6773537209445708</v>
       </c>
     </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>74.48</v>
       </c>
@@ -39272,7 +41824,7 @@
         <v>5.777560268820519</v>
       </c>
     </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>87.89</v>
       </c>
@@ -39346,7 +41898,7 @@
         <v>4.8477094765398601</v>
       </c>
     </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>103.72</v>
       </c>
@@ -39420,7 +41972,7 @@
         <v>3.9409797151488997</v>
       </c>
     </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>122.39</v>
       </c>
@@ -39494,7 +42046,7 @@
         <v>3.1463869535729696</v>
       </c>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>144.43</v>
       </c>
@@ -39568,7 +42120,7 @@
         <v>2.6180713977433872</v>
       </c>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>170.44</v>
       </c>
@@ -39642,7 +42194,7 @@
         <v>2.1302176459707756</v>
       </c>
     </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>201.13</v>
       </c>
@@ -39716,7 +42268,7 @@
         <v>1.7105709353227698</v>
       </c>
     </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>237.35</v>
       </c>
@@ -39789,11 +42341,11 @@
       <c r="X42" s="34">
         <v>1.4415962759726244</v>
       </c>
-      <c r="AX42" t="s">
+      <c r="AY42" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>280.08999999999997</v>
       </c>
@@ -39867,7 +42419,7 @@
         <v>1.1614464516924596</v>
       </c>
     </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>330.52</v>
       </c>
@@ -39941,7 +42493,7 @@
         <v>0.95258647265552743</v>
       </c>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>390.04</v>
       </c>
@@ -40015,7 +42567,7 @@
         <v>0.81771379246562659</v>
       </c>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>460.27</v>
       </c>
@@ -40089,7 +42641,7 @@
         <v>0.86202910167087976</v>
       </c>
     </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>26</v>
       </c>
@@ -40167,7 +42719,7 @@
         <v>70.988600000000005</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
         <f>SUM(B52:B95)</f>
         <v>3.5666000000000153</v>
@@ -40260,8 +42812,11 @@
         <f t="shared" si="1"/>
         <v>2.4796999999999936</v>
       </c>
+      <c r="AC50" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -40343,8 +42898,11 @@
       <c r="AB51" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AC51" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>0.37</v>
       </c>
@@ -40450,8 +43008,11 @@
       <c r="AB52" s="2">
         <v>944.72029380546201</v>
       </c>
+      <c r="AC52">
+        <v>944.85600729971304</v>
+      </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>0.44</v>
       </c>
@@ -40557,8 +43118,11 @@
       <c r="AB53" s="2">
         <v>1035.04781100796</v>
       </c>
+      <c r="AC53">
+        <v>1035.1816038890299</v>
+      </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>0.52</v>
       </c>
@@ -40664,8 +43228,11 @@
       <c r="AB54" s="2">
         <v>1188.6478532188901</v>
       </c>
+      <c r="AC54">
+        <v>1188.8633475784</v>
+      </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>0.61</v>
       </c>
@@ -40771,8 +43338,11 @@
       <c r="AB55" s="2">
         <v>1421.9932611834599</v>
       </c>
+      <c r="AC55">
+        <v>1422.38916628795</v>
+      </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>0.72</v>
       </c>
@@ -40878,8 +43448,11 @@
       <c r="AB56" s="2">
         <v>1737.04879565084</v>
       </c>
+      <c r="AC56">
+        <v>1737.62406546938</v>
+      </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>0.85</v>
       </c>
@@ -40985,8 +43558,11 @@
       <c r="AB57" s="2">
         <v>2102.2690952777598</v>
       </c>
+      <c r="AC57">
+        <v>2103.11506971668</v>
+      </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1.01</v>
       </c>
@@ -41092,8 +43668,11 @@
       <c r="AB58" s="2">
         <v>2538.3452734133598</v>
       </c>
+      <c r="AC58">
+        <v>2539.3058233010702</v>
+      </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1.19</v>
       </c>
@@ -41199,8 +43778,11 @@
       <c r="AB59" s="2">
         <v>3474.6076460541299</v>
       </c>
+      <c r="AC59">
+        <v>3475.5963127022401</v>
+      </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1.4</v>
       </c>
@@ -41306,8 +43888,11 @@
       <c r="AB60" s="2">
         <v>5296.33103203479</v>
       </c>
+      <c r="AC60">
+        <v>5297.5761192458904</v>
+      </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1.65</v>
       </c>
@@ -41413,8 +43998,11 @@
       <c r="AB61" s="2">
         <v>6874.9573259087401</v>
       </c>
+      <c r="AC61">
+        <v>6876.5576810454704</v>
+      </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1.95</v>
       </c>
@@ -41520,8 +44108,11 @@
       <c r="AB62" s="2">
         <v>8540.04664306013</v>
       </c>
+      <c r="AC62">
+        <v>8541.9061475275303</v>
+      </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>2.2999999999999998</v>
       </c>
@@ -41627,8 +44218,11 @@
       <c r="AB63" s="2">
         <v>10938.6027743382</v>
       </c>
+      <c r="AC63">
+        <v>10940.869150882099</v>
+      </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2.72</v>
       </c>
@@ -41734,8 +44328,11 @@
       <c r="AB64" s="2">
         <v>12801.8984428158</v>
       </c>
+      <c r="AC64">
+        <v>12805.2243677109</v>
+      </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>3.2</v>
       </c>
@@ -41841,8 +44438,11 @@
       <c r="AB65" s="2">
         <v>15573.839711606999</v>
       </c>
+      <c r="AC65">
+        <v>15580.5341337264</v>
+      </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>3.78</v>
       </c>
@@ -41948,8 +44548,11 @@
       <c r="AB66" s="2">
         <v>18377.915072940199</v>
       </c>
+      <c r="AC66">
+        <v>18387.701653566299</v>
+      </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>4.46</v>
       </c>
@@ -42055,8 +44658,11 @@
       <c r="AB67" s="2">
         <v>22170.651724897099</v>
       </c>
+      <c r="AC67">
+        <v>22177.617534083001</v>
+      </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>5.27</v>
       </c>
@@ -42162,8 +44768,11 @@
       <c r="AB68" s="2">
         <v>26344.813865784301</v>
       </c>
+      <c r="AC68">
+        <v>26349.011084515001</v>
+      </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>6.21</v>
       </c>
@@ -42269,8 +44878,11 @@
       <c r="AB69" s="2">
         <v>30319.508980505299</v>
       </c>
+      <c r="AC69">
+        <v>30324.209211134301</v>
+      </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>7.33</v>
       </c>
@@ -42376,8 +44988,11 @@
       <c r="AB70" s="2">
         <v>33877.034975590403</v>
       </c>
+      <c r="AC70">
+        <v>33883.817236299001</v>
+      </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>8.65</v>
       </c>
@@ -42483,8 +45098,11 @@
       <c r="AB71" s="2">
         <v>38432.048065299699</v>
       </c>
+      <c r="AC71">
+        <v>38437.433636551003</v>
+      </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>10.210000000000001</v>
       </c>
@@ -42590,8 +45208,11 @@
       <c r="AB72" s="2">
         <v>43843.675594193999</v>
       </c>
+      <c r="AC72">
+        <v>43844.797531079399</v>
+      </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>12.05</v>
       </c>
@@ -42697,8 +45318,11 @@
       <c r="AB73" s="2">
         <v>49341.658323637101</v>
       </c>
+      <c r="AC73">
+        <v>49335.925778748802</v>
+      </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>14.22</v>
       </c>
@@ -42804,8 +45428,11 @@
       <c r="AB74" s="2">
         <v>57258.431717602201</v>
       </c>
+      <c r="AC74">
+        <v>57238.751413920101</v>
+      </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>16.78</v>
       </c>
@@ -42911,8 +45538,11 @@
       <c r="AB75" s="2">
         <v>66189.284956371906</v>
       </c>
+      <c r="AC75">
+        <v>66151.030365357103</v>
+      </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>19.809999999999999</v>
       </c>
@@ -43018,8 +45648,11 @@
       <c r="AB76" s="2">
         <v>76880.823263456201</v>
       </c>
+      <c r="AC76">
+        <v>76823.601526389597</v>
+      </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>23.37</v>
       </c>
@@ -43125,8 +45758,11 @@
       <c r="AB77" s="2">
         <v>89903.928328826703</v>
       </c>
+      <c r="AC77">
+        <v>89834.214821136498</v>
+      </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>27.58</v>
       </c>
@@ -43232,8 +45868,11 @@
       <c r="AB78" s="2">
         <v>105800.466321952</v>
       </c>
+      <c r="AC78">
+        <v>105728.835269371</v>
+      </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>32.549999999999997</v>
       </c>
@@ -43339,8 +45978,11 @@
       <c r="AB79" s="2">
         <v>121057.20885535701</v>
       </c>
+      <c r="AC79">
+        <v>120986.169561916</v>
+      </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>38.409999999999997</v>
       </c>
@@ -43446,8 +46088,11 @@
       <c r="AB80" s="2">
         <v>137283.03411930901</v>
       </c>
+      <c r="AC80">
+        <v>137206.07909392301</v>
+      </c>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>45.32</v>
       </c>
@@ -43553,8 +46198,11 @@
       <c r="AB81" s="2">
         <v>154087.81222593601</v>
       </c>
+      <c r="AC81">
+        <v>154015.17581598501</v>
+      </c>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>53.48</v>
       </c>
@@ -43660,8 +46308,11 @@
       <c r="AB82" s="2">
         <v>167729.50382119699</v>
       </c>
+      <c r="AC82">
+        <v>167666.11173375801</v>
+      </c>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>63.11</v>
       </c>
@@ -43767,8 +46418,11 @@
       <c r="AB83" s="2">
         <v>177889.34180400899</v>
       </c>
+      <c r="AC83">
+        <v>177848.697496248</v>
+      </c>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>74.48</v>
       </c>
@@ -43874,8 +46528,11 @@
       <c r="AB84" s="2">
         <v>177252.53382008299</v>
       </c>
+      <c r="AC84">
+        <v>177238.39444492999</v>
+      </c>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>87.89</v>
       </c>
@@ -43981,8 +46638,11 @@
       <c r="AB85" s="2">
         <v>170182.56747836899</v>
       </c>
+      <c r="AC85">
+        <v>170182.24298028299</v>
+      </c>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>103.72</v>
       </c>
@@ -44088,8 +46748,11 @@
       <c r="AB86" s="2">
         <v>150486.77611684299</v>
       </c>
+      <c r="AC86">
+        <v>150515.517947994</v>
+      </c>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>122.39</v>
       </c>
@@ -44195,8 +46858,11 @@
       <c r="AB87" s="2">
         <v>128651.432009867</v>
       </c>
+      <c r="AC87">
+        <v>128689.593512748</v>
+      </c>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>144.43</v>
       </c>
@@ -44302,8 +46968,11 @@
       <c r="AB88" s="2">
         <v>104578.802184407</v>
       </c>
+      <c r="AC88">
+        <v>104624.688554839</v>
+      </c>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>170.44</v>
       </c>
@@ -44409,8 +47078,11 @@
       <c r="AB89" s="2">
         <v>82059.549181359194</v>
       </c>
+      <c r="AC89">
+        <v>82090.310220648898</v>
+      </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>201.13</v>
       </c>
@@ -44516,8 +47188,11 @@
       <c r="AB90" s="2">
         <v>60889.6557224524</v>
       </c>
+      <c r="AC90">
+        <v>60906.310822633997</v>
+      </c>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>237.35</v>
       </c>
@@ -44623,8 +47298,11 @@
       <c r="AB91" s="2">
         <v>46121.135756813303</v>
       </c>
+      <c r="AC91">
+        <v>46131.160961059701</v>
+      </c>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>280.08999999999997</v>
       </c>
@@ -44730,8 +47408,11 @@
       <c r="AB92" s="2">
         <v>35438.957050603698</v>
       </c>
+      <c r="AC92">
+        <v>35443.631738875403</v>
+      </c>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>330.52</v>
       </c>
@@ -44837,8 +47518,11 @@
       <c r="AB93" s="2">
         <v>28521.9474807388</v>
       </c>
+      <c r="AC93">
+        <v>28524.610349429899</v>
+      </c>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>390.04</v>
       </c>
@@ -44944,8 +47628,11 @@
       <c r="AB94" s="2">
         <v>22512.888671474098</v>
       </c>
+      <c r="AC94">
+        <v>22513.069557216601</v>
+      </c>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>460.27</v>
       </c>
@@ -45051,8 +47738,11 @@
       <c r="AB95" s="2">
         <v>18606.324768769999</v>
       </c>
+      <c r="AC95">
+        <v>18603.287715034701</v>
+      </c>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B96" s="37"/>
       <c r="C96" s="37"/>
       <c r="D96" s="37"/>
@@ -45060,15 +47750,18 @@
         <f>SUM(AA52:AA95)</f>
         <v>70.988600000000019</v>
       </c>
-      <c r="AD96" s="3"/>
+      <c r="AE96" s="3"/>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>29</v>
       </c>
-      <c r="AD97" s="3"/>
+      <c r="Q97" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE97" s="3"/>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>0</v>
       </c>
@@ -45114,10 +47807,12 @@
       <c r="P98" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q98" s="1"/>
-      <c r="AD98" s="3"/>
+      <c r="Q98" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE98" s="3"/>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>0.37</v>
       </c>
@@ -45164,10 +47859,12 @@
       <c r="P99" s="2">
         <v>944.72029380546201</v>
       </c>
-      <c r="Q99" s="3"/>
-      <c r="AD99" s="3"/>
+      <c r="Q99" s="3">
+        <v>944.85600729971304</v>
+      </c>
+      <c r="AE99" s="3"/>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>0.44</v>
       </c>
@@ -45214,10 +47911,12 @@
       <c r="P100" s="2">
         <v>1035.04781100796</v>
       </c>
-      <c r="Q100" s="3"/>
-      <c r="AD100" s="3"/>
+      <c r="Q100" s="3">
+        <v>1035.1816038890299</v>
+      </c>
+      <c r="AE100" s="3"/>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>0.52</v>
       </c>
@@ -45264,10 +47963,12 @@
       <c r="P101" s="2">
         <v>1188.6478532188901</v>
       </c>
-      <c r="Q101" s="3"/>
-      <c r="AD101" s="3"/>
+      <c r="Q101" s="3">
+        <v>1188.8633475784</v>
+      </c>
+      <c r="AE101" s="3"/>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>0.61</v>
       </c>
@@ -45314,10 +48015,12 @@
       <c r="P102" s="2">
         <v>1421.9932611834599</v>
       </c>
-      <c r="Q102" s="3"/>
-      <c r="AD102" s="3"/>
+      <c r="Q102" s="3">
+        <v>1422.38916628795</v>
+      </c>
+      <c r="AE102" s="3"/>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>0.72</v>
       </c>
@@ -45364,10 +48067,12 @@
       <c r="P103" s="2">
         <v>1737.04879565084</v>
       </c>
-      <c r="Q103" s="3"/>
-      <c r="AD103" s="3"/>
+      <c r="Q103" s="3">
+        <v>1737.62406546938</v>
+      </c>
+      <c r="AE103" s="3"/>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>0.85</v>
       </c>
@@ -45414,10 +48119,12 @@
       <c r="P104" s="2">
         <v>2102.2690952777598</v>
       </c>
-      <c r="Q104" s="3"/>
-      <c r="AD104" s="3"/>
+      <c r="Q104" s="3">
+        <v>2103.11506971668</v>
+      </c>
+      <c r="AE104" s="3"/>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>1.01</v>
       </c>
@@ -45464,10 +48171,12 @@
       <c r="P105" s="2">
         <v>2538.3452734133598</v>
       </c>
-      <c r="Q105" s="3"/>
-      <c r="AD105" s="3"/>
+      <c r="Q105" s="3">
+        <v>2539.3058233010702</v>
+      </c>
+      <c r="AE105" s="3"/>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>1.19</v>
       </c>
@@ -45514,10 +48223,12 @@
       <c r="P106" s="2">
         <v>3474.6076460541299</v>
       </c>
-      <c r="Q106" s="3"/>
-      <c r="AD106" s="3"/>
+      <c r="Q106" s="3">
+        <v>3475.5963127022401</v>
+      </c>
+      <c r="AE106" s="3"/>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>1.4</v>
       </c>
@@ -45564,10 +48275,12 @@
       <c r="P107" s="2">
         <v>5296.33103203479</v>
       </c>
-      <c r="Q107" s="3"/>
-      <c r="AD107" s="3"/>
+      <c r="Q107" s="3">
+        <v>5297.5761192458904</v>
+      </c>
+      <c r="AE107" s="3"/>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>1.65</v>
       </c>
@@ -45614,10 +48327,12 @@
       <c r="P108" s="2">
         <v>6874.9573259087401</v>
       </c>
-      <c r="Q108" s="3"/>
-      <c r="AD108" s="3"/>
+      <c r="Q108" s="3">
+        <v>6876.5576810454704</v>
+      </c>
+      <c r="AE108" s="3"/>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>1.95</v>
       </c>
@@ -45664,10 +48379,12 @@
       <c r="P109" s="2">
         <v>8540.04664306013</v>
       </c>
-      <c r="Q109" s="3"/>
-      <c r="AD109" s="3"/>
+      <c r="Q109" s="3">
+        <v>8541.9061475275303</v>
+      </c>
+      <c r="AE109" s="3"/>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>2.2999999999999998</v>
       </c>
@@ -45714,10 +48431,12 @@
       <c r="P110" s="2">
         <v>10938.6027743382</v>
       </c>
-      <c r="Q110" s="3"/>
-      <c r="AD110" s="3"/>
+      <c r="Q110" s="3">
+        <v>10940.869150882099</v>
+      </c>
+      <c r="AE110" s="3"/>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>2.72</v>
       </c>
@@ -45764,10 +48483,12 @@
       <c r="P111" s="2">
         <v>12801.8984428158</v>
       </c>
-      <c r="Q111" s="3"/>
-      <c r="AD111" s="3"/>
+      <c r="Q111" s="3">
+        <v>12805.2243677109</v>
+      </c>
+      <c r="AE111" s="3"/>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>3.2</v>
       </c>
@@ -45814,10 +48535,12 @@
       <c r="P112" s="2">
         <v>15573.839711606999</v>
       </c>
-      <c r="Q112" s="3"/>
-      <c r="AD112" s="3"/>
+      <c r="Q112" s="3">
+        <v>15580.5341337264</v>
+      </c>
+      <c r="AE112" s="3"/>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>3.78</v>
       </c>
@@ -45864,10 +48587,12 @@
       <c r="P113" s="2">
         <v>18377.915072940199</v>
       </c>
-      <c r="Q113" s="3"/>
-      <c r="AD113" s="3"/>
+      <c r="Q113" s="3">
+        <v>18387.701653566299</v>
+      </c>
+      <c r="AE113" s="3"/>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>4.46</v>
       </c>
@@ -45914,10 +48639,12 @@
       <c r="P114" s="2">
         <v>22170.651724897099</v>
       </c>
-      <c r="Q114" s="3"/>
-      <c r="AD114" s="3"/>
+      <c r="Q114" s="3">
+        <v>22177.617534083001</v>
+      </c>
+      <c r="AE114" s="3"/>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>5.27</v>
       </c>
@@ -45964,10 +48691,12 @@
       <c r="P115" s="2">
         <v>26344.813865784301</v>
       </c>
-      <c r="Q115" s="3"/>
-      <c r="AD115" s="3"/>
+      <c r="Q115" s="3">
+        <v>26349.011084515001</v>
+      </c>
+      <c r="AE115" s="3"/>
     </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>6.21</v>
       </c>
@@ -46014,10 +48743,12 @@
       <c r="P116" s="2">
         <v>30319.508980505299</v>
       </c>
-      <c r="Q116" s="3"/>
-      <c r="AD116" s="3"/>
+      <c r="Q116" s="3">
+        <v>30324.209211134301</v>
+      </c>
+      <c r="AE116" s="3"/>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>7.33</v>
       </c>
@@ -46064,10 +48795,12 @@
       <c r="P117" s="2">
         <v>33877.034975590403</v>
       </c>
-      <c r="Q117" s="3"/>
-      <c r="AD117" s="3"/>
+      <c r="Q117" s="3">
+        <v>33883.817236299001</v>
+      </c>
+      <c r="AE117" s="3"/>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>8.65</v>
       </c>
@@ -46114,10 +48847,12 @@
       <c r="P118" s="2">
         <v>38432.048065299699</v>
       </c>
-      <c r="Q118" s="3"/>
-      <c r="AD118" s="3"/>
+      <c r="Q118" s="3">
+        <v>38437.433636551003</v>
+      </c>
+      <c r="AE118" s="3"/>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>10.210000000000001</v>
       </c>
@@ -46164,10 +48899,12 @@
       <c r="P119" s="2">
         <v>43843.675594193999</v>
       </c>
-      <c r="Q119" s="3"/>
-      <c r="AD119" s="3"/>
+      <c r="Q119" s="3">
+        <v>43844.797531079399</v>
+      </c>
+      <c r="AE119" s="3"/>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>12.05</v>
       </c>
@@ -46214,10 +48951,12 @@
       <c r="P120" s="2">
         <v>49341.658323637101</v>
       </c>
-      <c r="Q120" s="3"/>
-      <c r="AD120" s="3"/>
+      <c r="Q120" s="3">
+        <v>49335.925778748802</v>
+      </c>
+      <c r="AE120" s="3"/>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>14.22</v>
       </c>
@@ -46264,10 +49003,12 @@
       <c r="P121" s="2">
         <v>57258.431717602201</v>
       </c>
-      <c r="Q121" s="3"/>
-      <c r="AD121" s="3"/>
+      <c r="Q121" s="3">
+        <v>57238.751413920101</v>
+      </c>
+      <c r="AE121" s="3"/>
     </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>16.78</v>
       </c>
@@ -46314,10 +49055,12 @@
       <c r="P122" s="2">
         <v>66189.284956371906</v>
       </c>
-      <c r="Q122" s="3"/>
-      <c r="AD122" s="3"/>
+      <c r="Q122" s="3">
+        <v>66151.030365357103</v>
+      </c>
+      <c r="AE122" s="3"/>
     </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>19.809999999999999</v>
       </c>
@@ -46364,10 +49107,12 @@
       <c r="P123" s="2">
         <v>76880.823263456201</v>
       </c>
-      <c r="Q123" s="3"/>
-      <c r="AD123" s="3"/>
+      <c r="Q123" s="3">
+        <v>76823.601526389597</v>
+      </c>
+      <c r="AE123" s="3"/>
     </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>23.37</v>
       </c>
@@ -46414,10 +49159,12 @@
       <c r="P124" s="2">
         <v>89903.928328826703</v>
       </c>
-      <c r="Q124" s="3"/>
-      <c r="AD124" s="3"/>
+      <c r="Q124" s="3">
+        <v>89834.214821136498</v>
+      </c>
+      <c r="AE124" s="3"/>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>27.58</v>
       </c>
@@ -46464,10 +49211,12 @@
       <c r="P125" s="2">
         <v>105800.466321952</v>
       </c>
-      <c r="Q125" s="3"/>
-      <c r="AD125" s="3"/>
+      <c r="Q125" s="3">
+        <v>105728.835269371</v>
+      </c>
+      <c r="AE125" s="3"/>
     </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>32.549999999999997</v>
       </c>
@@ -46514,10 +49263,12 @@
       <c r="P126" s="2">
         <v>121057.20885535701</v>
       </c>
-      <c r="Q126" s="3"/>
-      <c r="AD126" s="3"/>
+      <c r="Q126" s="3">
+        <v>120986.169561916</v>
+      </c>
+      <c r="AE126" s="3"/>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>38.409999999999997</v>
       </c>
@@ -46564,10 +49315,12 @@
       <c r="P127" s="2">
         <v>137283.03411930901</v>
       </c>
-      <c r="Q127" s="3"/>
-      <c r="AD127" s="3"/>
+      <c r="Q127" s="3">
+        <v>137206.07909392301</v>
+      </c>
+      <c r="AE127" s="3"/>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>45.32</v>
       </c>
@@ -46614,10 +49367,12 @@
       <c r="P128" s="2">
         <v>154087.81222593601</v>
       </c>
-      <c r="Q128" s="3"/>
-      <c r="AD128" s="3"/>
+      <c r="Q128" s="3">
+        <v>154015.17581598501</v>
+      </c>
+      <c r="AE128" s="3"/>
     </row>
-    <row r="129" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>53.48</v>
       </c>
@@ -46664,10 +49419,12 @@
       <c r="P129" s="2">
         <v>167729.50382119699</v>
       </c>
-      <c r="Q129" s="3"/>
-      <c r="AD129" s="3"/>
+      <c r="Q129" s="3">
+        <v>167666.11173375801</v>
+      </c>
+      <c r="AE129" s="3"/>
     </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>63.11</v>
       </c>
@@ -46714,10 +49471,12 @@
       <c r="P130" s="2">
         <v>177889.34180400899</v>
       </c>
-      <c r="Q130" s="3"/>
-      <c r="AD130" s="3"/>
+      <c r="Q130" s="3">
+        <v>177848.697496248</v>
+      </c>
+      <c r="AE130" s="3"/>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>74.48</v>
       </c>
@@ -46764,10 +49523,12 @@
       <c r="P131" s="2">
         <v>177252.53382008299</v>
       </c>
-      <c r="Q131" s="3"/>
-      <c r="AD131" s="3"/>
+      <c r="Q131" s="3">
+        <v>177238.39444492999</v>
+      </c>
+      <c r="AE131" s="3"/>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>87.89</v>
       </c>
@@ -46814,10 +49575,12 @@
       <c r="P132" s="2">
         <v>170182.56747836899</v>
       </c>
-      <c r="Q132" s="3"/>
-      <c r="AD132" s="3"/>
+      <c r="Q132" s="3">
+        <v>170182.24298028299</v>
+      </c>
+      <c r="AE132" s="3"/>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>103.72</v>
       </c>
@@ -46864,10 +49627,12 @@
       <c r="P133" s="2">
         <v>150486.77611684299</v>
       </c>
-      <c r="Q133" s="3"/>
-      <c r="AD133" s="3"/>
+      <c r="Q133" s="3">
+        <v>150515.517947994</v>
+      </c>
+      <c r="AE133" s="3"/>
     </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>122.39</v>
       </c>
@@ -46914,10 +49679,12 @@
       <c r="P134" s="2">
         <v>128651.432009867</v>
       </c>
-      <c r="Q134" s="3"/>
-      <c r="AD134" s="3"/>
+      <c r="Q134" s="3">
+        <v>128689.593512748</v>
+      </c>
+      <c r="AE134" s="3"/>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>144.43</v>
       </c>
@@ -46964,10 +49731,12 @@
       <c r="P135" s="2">
         <v>104578.802184407</v>
       </c>
-      <c r="Q135" s="3"/>
-      <c r="AD135" s="3"/>
+      <c r="Q135" s="3">
+        <v>104624.688554839</v>
+      </c>
+      <c r="AE135" s="3"/>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>170.44</v>
       </c>
@@ -47014,10 +49783,12 @@
       <c r="P136" s="2">
         <v>82059.549181359194</v>
       </c>
-      <c r="Q136" s="3"/>
-      <c r="AD136" s="3"/>
+      <c r="Q136" s="3">
+        <v>82090.310220648898</v>
+      </c>
+      <c r="AE136" s="3"/>
     </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>201.13</v>
       </c>
@@ -47064,10 +49835,12 @@
       <c r="P137" s="2">
         <v>60889.6557224524</v>
       </c>
-      <c r="Q137" s="3"/>
-      <c r="AD137" s="3"/>
+      <c r="Q137" s="3">
+        <v>60906.310822633997</v>
+      </c>
+      <c r="AE137" s="3"/>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>237.35</v>
       </c>
@@ -47114,10 +49887,12 @@
       <c r="P138" s="2">
         <v>46121.135756813303</v>
       </c>
-      <c r="Q138" s="3"/>
-      <c r="AD138" s="3"/>
+      <c r="Q138" s="3">
+        <v>46131.160961059701</v>
+      </c>
+      <c r="AE138" s="3"/>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>280.08999999999997</v>
       </c>
@@ -47164,10 +49939,12 @@
       <c r="P139" s="2">
         <v>35438.957050603698</v>
       </c>
-      <c r="Q139" s="3"/>
-      <c r="AD139" s="3"/>
+      <c r="Q139" s="3">
+        <v>35443.631738875403</v>
+      </c>
+      <c r="AE139" s="3"/>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>330.52</v>
       </c>
@@ -47214,10 +49991,12 @@
       <c r="P140" s="2">
         <v>28521.9474807388</v>
       </c>
-      <c r="Q140" s="3"/>
-      <c r="AD140" s="3"/>
+      <c r="Q140" s="3">
+        <v>28524.610349429899</v>
+      </c>
+      <c r="AE140" s="3"/>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>390.04</v>
       </c>
@@ -47264,10 +50043,12 @@
       <c r="P141" s="2">
         <v>22512.888671474098</v>
       </c>
-      <c r="Q141" s="3"/>
-      <c r="AD141" s="3"/>
+      <c r="Q141" s="3">
+        <v>22513.069557216601</v>
+      </c>
+      <c r="AE141" s="3"/>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>460.27</v>
       </c>
@@ -47314,21 +50095,26 @@
       <c r="P142" s="2">
         <v>18606.324768769999</v>
       </c>
-      <c r="Q142" s="3"/>
-      <c r="AD142" s="3"/>
+      <c r="Q142" s="3">
+        <v>18603.287715034701</v>
+      </c>
+      <c r="AE142" s="3"/>
     </row>
-    <row r="143" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:31" x14ac:dyDescent="0.25">
       <c r="O143" s="64"/>
       <c r="P143" s="64"/>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>28</v>
       </c>
       <c r="O144" s="64"/>
       <c r="P144" s="64"/>
+      <c r="R144" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>0</v>
       </c>
@@ -47377,9 +50163,11 @@
       <c r="Q145" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R145" s="1"/>
+      <c r="R145" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>0.37</v>
       </c>
@@ -47429,9 +50217,11 @@
       <c r="Q146" s="2">
         <v>944.72029380546201</v>
       </c>
-      <c r="R146" s="3"/>
+      <c r="R146" s="3">
+        <v>944.85600729971304</v>
+      </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>0.44</v>
       </c>
@@ -47481,9 +50271,11 @@
       <c r="Q147" s="2">
         <v>1035.04781100796</v>
       </c>
-      <c r="R147" s="3"/>
+      <c r="R147" s="3">
+        <v>1035.1816038890299</v>
+      </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>0.52</v>
       </c>
@@ -47533,9 +50325,11 @@
       <c r="Q148" s="2">
         <v>1188.6478532188901</v>
       </c>
-      <c r="R148" s="3"/>
+      <c r="R148" s="3">
+        <v>1188.8633475784</v>
+      </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>0.61</v>
       </c>
@@ -47585,9 +50379,11 @@
       <c r="Q149" s="2">
         <v>1421.9932611834599</v>
       </c>
-      <c r="R149" s="3"/>
+      <c r="R149" s="3">
+        <v>1422.38916628795</v>
+      </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>0.72</v>
       </c>
@@ -47637,9 +50433,11 @@
       <c r="Q150" s="2">
         <v>1737.04879565084</v>
       </c>
-      <c r="R150" s="3"/>
+      <c r="R150" s="3">
+        <v>1737.62406546938</v>
+      </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>0.85</v>
       </c>
@@ -47689,9 +50487,11 @@
       <c r="Q151" s="2">
         <v>2102.2690952777598</v>
       </c>
-      <c r="R151" s="3"/>
+      <c r="R151" s="3">
+        <v>2103.11506971668</v>
+      </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>1.01</v>
       </c>
@@ -47741,9 +50541,11 @@
       <c r="Q152" s="2">
         <v>2538.3452734133598</v>
       </c>
-      <c r="R152" s="3"/>
+      <c r="R152" s="3">
+        <v>2539.3058233010702</v>
+      </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>1.19</v>
       </c>
@@ -47793,9 +50595,11 @@
       <c r="Q153" s="2">
         <v>3474.6076460541299</v>
       </c>
-      <c r="R153" s="3"/>
+      <c r="R153" s="3">
+        <v>3475.5963127022401</v>
+      </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>1.4</v>
       </c>
@@ -47845,9 +50649,11 @@
       <c r="Q154" s="2">
         <v>5296.33103203479</v>
       </c>
-      <c r="R154" s="3"/>
+      <c r="R154" s="3">
+        <v>5297.5761192458904</v>
+      </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>1.65</v>
       </c>
@@ -47897,9 +50703,11 @@
       <c r="Q155" s="2">
         <v>6874.9573259087401</v>
       </c>
-      <c r="R155" s="3"/>
+      <c r="R155" s="3">
+        <v>6876.5576810454704</v>
+      </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>1.95</v>
       </c>
@@ -47949,9 +50757,11 @@
       <c r="Q156" s="2">
         <v>8540.04664306013</v>
       </c>
-      <c r="R156" s="3"/>
+      <c r="R156" s="3">
+        <v>8541.9061475275303</v>
+      </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>2.2999999999999998</v>
       </c>
@@ -48001,9 +50811,11 @@
       <c r="Q157" s="2">
         <v>10938.6027743382</v>
       </c>
-      <c r="R157" s="3"/>
+      <c r="R157" s="3">
+        <v>10940.869150882099</v>
+      </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>2.72</v>
       </c>
@@ -48053,9 +50865,11 @@
       <c r="Q158" s="2">
         <v>12801.8984428158</v>
       </c>
-      <c r="R158" s="3"/>
+      <c r="R158" s="3">
+        <v>12805.2243677109</v>
+      </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>3.2</v>
       </c>
@@ -48105,9 +50919,11 @@
       <c r="Q159" s="2">
         <v>15573.839711606999</v>
       </c>
-      <c r="R159" s="3"/>
+      <c r="R159" s="3">
+        <v>15580.5341337264</v>
+      </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>3.78</v>
       </c>
@@ -48157,9 +50973,11 @@
       <c r="Q160" s="2">
         <v>18377.915072940199</v>
       </c>
-      <c r="R160" s="3"/>
+      <c r="R160" s="3">
+        <v>18387.701653566299</v>
+      </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>4.46</v>
       </c>
@@ -48209,9 +51027,11 @@
       <c r="Q161" s="2">
         <v>22170.651724897099</v>
       </c>
-      <c r="R161" s="3"/>
+      <c r="R161" s="3">
+        <v>22177.617534083001</v>
+      </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>5.27</v>
       </c>
@@ -48261,9 +51081,11 @@
       <c r="Q162" s="2">
         <v>26344.813865784301</v>
       </c>
-      <c r="R162" s="3"/>
+      <c r="R162" s="3">
+        <v>26349.011084515001</v>
+      </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>6.21</v>
       </c>
@@ -48313,9 +51135,11 @@
       <c r="Q163" s="2">
         <v>30319.508980505299</v>
       </c>
-      <c r="R163" s="3"/>
+      <c r="R163" s="3">
+        <v>30324.209211134301</v>
+      </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>7.33</v>
       </c>
@@ -48365,9 +51189,11 @@
       <c r="Q164" s="2">
         <v>33877.034975590403</v>
       </c>
-      <c r="R164" s="3"/>
+      <c r="R164" s="3">
+        <v>33883.817236299001</v>
+      </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>8.65</v>
       </c>
@@ -48417,9 +51243,11 @@
       <c r="Q165" s="2">
         <v>38432.048065299699</v>
       </c>
-      <c r="R165" s="3"/>
+      <c r="R165" s="3">
+        <v>38437.433636551003</v>
+      </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>10.210000000000001</v>
       </c>
@@ -48469,9 +51297,11 @@
       <c r="Q166" s="2">
         <v>43843.675594193999</v>
       </c>
-      <c r="R166" s="3"/>
+      <c r="R166" s="3">
+        <v>43844.797531079399</v>
+      </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>12.05</v>
       </c>
@@ -48521,9 +51351,11 @@
       <c r="Q167" s="2">
         <v>49341.658323637101</v>
       </c>
-      <c r="R167" s="3"/>
+      <c r="R167" s="3">
+        <v>49335.925778748802</v>
+      </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>14.22</v>
       </c>
@@ -48573,9 +51405,11 @@
       <c r="Q168" s="2">
         <v>57258.431717602201</v>
       </c>
-      <c r="R168" s="3"/>
+      <c r="R168" s="3">
+        <v>57238.751413920101</v>
+      </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>16.78</v>
       </c>
@@ -48625,9 +51459,11 @@
       <c r="Q169" s="2">
         <v>66189.284956371906</v>
       </c>
-      <c r="R169" s="3"/>
+      <c r="R169" s="3">
+        <v>66151.030365357103</v>
+      </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>19.809999999999999</v>
       </c>
@@ -48677,9 +51513,11 @@
       <c r="Q170" s="2">
         <v>76880.823263456201</v>
       </c>
-      <c r="R170" s="3"/>
+      <c r="R170" s="3">
+        <v>76823.601526389597</v>
+      </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>23.37</v>
       </c>
@@ -48729,9 +51567,11 @@
       <c r="Q171" s="2">
         <v>89903.928328826703</v>
       </c>
-      <c r="R171" s="3"/>
+      <c r="R171" s="3">
+        <v>89834.214821136498</v>
+      </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>27.58</v>
       </c>
@@ -48781,9 +51621,11 @@
       <c r="Q172" s="2">
         <v>105800.466321952</v>
       </c>
-      <c r="R172" s="3"/>
+      <c r="R172" s="3">
+        <v>105728.835269371</v>
+      </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>32.549999999999997</v>
       </c>
@@ -48833,9 +51675,11 @@
       <c r="Q173" s="2">
         <v>121057.20885535701</v>
       </c>
-      <c r="R173" s="3"/>
+      <c r="R173" s="3">
+        <v>120986.169561916</v>
+      </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>38.409999999999997</v>
       </c>
@@ -48885,9 +51729,11 @@
       <c r="Q174" s="2">
         <v>137283.03411930901</v>
       </c>
-      <c r="R174" s="3"/>
+      <c r="R174" s="3">
+        <v>137206.07909392301</v>
+      </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>45.32</v>
       </c>
@@ -48937,9 +51783,11 @@
       <c r="Q175" s="2">
         <v>154087.81222593601</v>
       </c>
-      <c r="R175" s="3"/>
+      <c r="R175" s="3">
+        <v>154015.17581598501</v>
+      </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>53.48</v>
       </c>
@@ -48989,9 +51837,11 @@
       <c r="Q176" s="2">
         <v>167729.50382119699</v>
       </c>
-      <c r="R176" s="3"/>
+      <c r="R176" s="3">
+        <v>167666.11173375801</v>
+      </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>63.11</v>
       </c>
@@ -49041,9 +51891,11 @@
       <c r="Q177" s="2">
         <v>177889.34180400899</v>
       </c>
-      <c r="R177" s="3"/>
+      <c r="R177" s="3">
+        <v>177848.697496248</v>
+      </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>74.48</v>
       </c>
@@ -49093,9 +51945,11 @@
       <c r="Q178" s="2">
         <v>177252.53382008299</v>
       </c>
-      <c r="R178" s="3"/>
+      <c r="R178" s="3">
+        <v>177238.39444492999</v>
+      </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>87.89</v>
       </c>
@@ -49145,9 +51999,11 @@
       <c r="Q179" s="2">
         <v>170182.56747836899</v>
       </c>
-      <c r="R179" s="3"/>
+      <c r="R179" s="3">
+        <v>170182.24298028299</v>
+      </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>103.72</v>
       </c>
@@ -49197,9 +52053,11 @@
       <c r="Q180" s="2">
         <v>150486.77611684299</v>
       </c>
-      <c r="R180" s="3"/>
+      <c r="R180" s="3">
+        <v>150515.517947994</v>
+      </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>122.39</v>
       </c>
@@ -49249,9 +52107,11 @@
       <c r="Q181" s="2">
         <v>128651.432009867</v>
       </c>
-      <c r="R181" s="3"/>
+      <c r="R181" s="3">
+        <v>128689.593512748</v>
+      </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>144.43</v>
       </c>
@@ -49301,9 +52161,11 @@
       <c r="Q182" s="2">
         <v>104578.802184407</v>
       </c>
-      <c r="R182" s="3"/>
+      <c r="R182" s="3">
+        <v>104624.688554839</v>
+      </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>170.44</v>
       </c>
@@ -49353,9 +52215,11 @@
       <c r="Q183" s="2">
         <v>82059.549181359194</v>
       </c>
-      <c r="R183" s="3"/>
+      <c r="R183" s="3">
+        <v>82090.310220648898</v>
+      </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>201.13</v>
       </c>
@@ -49405,9 +52269,11 @@
       <c r="Q184" s="2">
         <v>60889.6557224524</v>
       </c>
-      <c r="R184" s="3"/>
+      <c r="R184" s="3">
+        <v>60906.310822633997</v>
+      </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>237.35</v>
       </c>
@@ -49457,9 +52323,11 @@
       <c r="Q185" s="2">
         <v>46121.135756813303</v>
       </c>
-      <c r="R185" s="3"/>
+      <c r="R185" s="3">
+        <v>46131.160961059701</v>
+      </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>280.08999999999997</v>
       </c>
@@ -49509,9 +52377,11 @@
       <c r="Q186" s="2">
         <v>35438.957050603698</v>
       </c>
-      <c r="R186" s="3"/>
+      <c r="R186" s="3">
+        <v>35443.631738875403</v>
+      </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>330.52</v>
       </c>
@@ -49561,9 +52431,11 @@
       <c r="Q187" s="2">
         <v>28521.9474807388</v>
       </c>
-      <c r="R187" s="3"/>
+      <c r="R187" s="3">
+        <v>28524.610349429899</v>
+      </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>390.04</v>
       </c>
@@ -49613,9 +52485,11 @@
       <c r="Q188" s="2">
         <v>22512.888671474098</v>
       </c>
-      <c r="R188" s="3"/>
+      <c r="R188" s="3">
+        <v>22513.069557216601</v>
+      </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>460.27</v>
       </c>
@@ -49665,7 +52539,9 @@
       <c r="Q189" s="2">
         <v>18606.324768769999</v>
       </c>
-      <c r="R189" s="3"/>
+      <c r="R189" s="3">
+        <v>18603.287715034701</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
